--- a/data/trans_orig/P27_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P27_1-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>46495</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33756</v>
+        <v>34957</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61067</v>
+        <v>60480</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09970685596894137</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07238751885700323</v>
+        <v>0.07496306117441386</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1309559252016192</v>
+        <v>0.1296965089887621</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -765,19 +765,19 @@
         <v>41098</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29305</v>
+        <v>29800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53005</v>
+        <v>54973</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09198457727040293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06558941975291695</v>
+        <v>0.06669773844649729</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1186328724292484</v>
+        <v>0.1230377892307372</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -786,19 +786,19 @@
         <v>87594</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70426</v>
+        <v>71857</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105565</v>
+        <v>106666</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09592826875663746</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07712674128150866</v>
+        <v>0.07869430285495062</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1156094417960992</v>
+        <v>0.1168159691670931</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>124250</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107051</v>
+        <v>105140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143722</v>
+        <v>143381</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2664481479076964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2295659345455817</v>
+        <v>0.2254669468731401</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3082063722204539</v>
+        <v>0.3074735274674559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -836,19 +836,19 @@
         <v>121771</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103939</v>
+        <v>102575</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141076</v>
+        <v>140831</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2725434473130173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2326315855483029</v>
+        <v>0.2295780373332005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3157501693471801</v>
+        <v>0.3152016799426422</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>251</v>
@@ -857,19 +857,19 @@
         <v>246021</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>221342</v>
+        <v>220057</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>273461</v>
+        <v>272661</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2694306380880195</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2424033285062029</v>
+        <v>0.2409964211658582</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2994817379915732</v>
+        <v>0.2986050713419041</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>169816</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>152036</v>
+        <v>151111</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>192639</v>
+        <v>190952</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3641618751666369</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3260353388950578</v>
+        <v>0.3240514571147314</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4131047031309631</v>
+        <v>0.409487306439663</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>178</v>
@@ -907,19 +907,19 @@
         <v>173478</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>151938</v>
+        <v>153149</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>194111</v>
+        <v>193414</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3882706555659474</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3400619567617122</v>
+        <v>0.3427724320572045</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.434450711628603</v>
+        <v>0.4328903133000341</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>349</v>
@@ -928,19 +928,19 @@
         <v>343293</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>316130</v>
+        <v>316119</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>374516</v>
+        <v>371756</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.375958539451535</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3462104181409015</v>
+        <v>0.3461985380891113</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4101522762925835</v>
+        <v>0.4071289671647412</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>125758</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108066</v>
+        <v>107671</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145695</v>
+        <v>145292</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2696831209567254</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.23174352996216</v>
+        <v>0.2308962910140838</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3124352705973892</v>
+        <v>0.3115715630713415</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -978,19 +978,19 @@
         <v>110449</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93661</v>
+        <v>94152</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128869</v>
+        <v>127986</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2472013198506324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2096278248051088</v>
+        <v>0.2107269722940112</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2884302677896663</v>
+        <v>0.2864533416031761</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>250</v>
@@ -999,19 +999,19 @@
         <v>236207</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>208892</v>
+        <v>211470</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>261571</v>
+        <v>261504</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.258682553703808</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2287684985891041</v>
+        <v>0.2315913703315962</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2864600967564211</v>
+        <v>0.2863863173079824</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>67881</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>52631</v>
+        <v>52779</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>85926</v>
+        <v>87413</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09574000511522052</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07423178960503689</v>
+        <v>0.07444018531914547</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1211915274640612</v>
+        <v>0.1232882116967504</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>44</v>
@@ -1124,19 +1124,19 @@
         <v>45865</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>34358</v>
+        <v>34028</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60671</v>
+        <v>60202</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07696617012996841</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05765738548342614</v>
+        <v>0.05710250131454288</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1018130556751755</v>
+        <v>0.1010263946764332</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>108</v>
@@ -1145,19 +1145,19 @@
         <v>113745</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>93990</v>
+        <v>95266</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>134676</v>
+        <v>137484</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08716668539410499</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07202764614909392</v>
+        <v>0.0730056163502992</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1032063598055803</v>
+        <v>0.105358391860092</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>172478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>149431</v>
+        <v>150550</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>194815</v>
+        <v>197412</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.243265923223266</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2107606868242929</v>
+        <v>0.2123383078564968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2747707904545389</v>
+        <v>0.2784333712174976</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -1195,19 +1195,19 @@
         <v>103935</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87465</v>
+        <v>83494</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>124703</v>
+        <v>123925</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.174415252490501</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1467765125846483</v>
+        <v>0.1401115395850769</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2092658464918698</v>
+        <v>0.2079597940889518</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>266</v>
@@ -1216,19 +1216,19 @@
         <v>276413</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>245497</v>
+        <v>245384</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>306873</v>
+        <v>307651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2118243550157611</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1881322008203118</v>
+        <v>0.1880457656067485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2351662691476747</v>
+        <v>0.2357628877925219</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>276246</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>249039</v>
+        <v>249363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301663</v>
+        <v>303543</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3896224137895204</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3512484250341855</v>
+        <v>0.3517062484781759</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4254707888877194</v>
+        <v>0.4281226101912175</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>281</v>
@@ -1266,19 +1266,19 @@
         <v>301165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>275465</v>
+        <v>277216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>325586</v>
+        <v>326624</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5053888896981158</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4622609239049723</v>
+        <v>0.4651993975604382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5463692955787344</v>
+        <v>0.5481113288112422</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>546</v>
@@ -1287,19 +1287,19 @@
         <v>577411</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>540733</v>
+        <v>537956</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>612813</v>
+        <v>614901</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4424887041202319</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4143808868988355</v>
+        <v>0.4122524908105624</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4696183233963936</v>
+        <v>0.4712177555096821</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>192405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>169989</v>
+        <v>168887</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>217329</v>
+        <v>218253</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2713716578719931</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2397548779071053</v>
+        <v>0.2382016950062887</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3065249754690447</v>
+        <v>0.3078279674856</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>139</v>
@@ -1337,19 +1337,19 @@
         <v>144943</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>124545</v>
+        <v>122726</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>166650</v>
+        <v>166156</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2432296876814149</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2090010638223748</v>
+        <v>0.2059476507321529</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2796564257988732</v>
+        <v>0.2788281286049063</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>319</v>
@@ -1358,19 +1358,19 @@
         <v>337348</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>305993</v>
+        <v>305453</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>371149</v>
+        <v>371487</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.258520255469902</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2344922516144347</v>
+        <v>0.2340782751617</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.284423261607306</v>
+        <v>0.284682295713061</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>64881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50489</v>
+        <v>49989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80915</v>
+        <v>80822</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1080533525404088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08408511173249407</v>
+        <v>0.08325276213412629</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.134757238513568</v>
+        <v>0.1346021407879026</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -1483,19 +1483,19 @@
         <v>36550</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26484</v>
+        <v>25062</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50719</v>
+        <v>49737</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05637943560336595</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04085224272722132</v>
+        <v>0.03865791681003594</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07823435468266916</v>
+        <v>0.07672064907090054</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -1504,19 +1504,19 @@
         <v>101431</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>82948</v>
+        <v>83733</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>123357</v>
+        <v>123703</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08122648560563299</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06642538827774139</v>
+        <v>0.06705388765102625</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09878482189150488</v>
+        <v>0.09906219091149417</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>129050</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>108344</v>
+        <v>111203</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>148748</v>
+        <v>152335</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2149217574955365</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1804380489026484</v>
+        <v>0.1851992330588276</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2477286471777107</v>
+        <v>0.2537020664460883</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>108</v>
@@ -1554,19 +1554,19 @@
         <v>113854</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>94330</v>
+        <v>94465</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>137126</v>
+        <v>134815</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1756209429700422</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1455049348817925</v>
+        <v>0.1457136462623597</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2115191028253967</v>
+        <v>0.207953949707475</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>233</v>
@@ -1575,19 +1575,19 @@
         <v>242903</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>214573</v>
+        <v>215329</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>271568</v>
+        <v>275640</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1945184711917661</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1718316976671414</v>
+        <v>0.1724365004055065</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2174734018926253</v>
+        <v>0.220734380297719</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>251685</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>226975</v>
+        <v>228051</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>275123</v>
+        <v>276259</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4191617352159949</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3780085032144905</v>
+        <v>0.3798009001220307</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4581958416753995</v>
+        <v>0.4600876804658484</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>298</v>
@@ -1625,19 +1625,19 @@
         <v>312639</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>286256</v>
+        <v>288228</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>337808</v>
+        <v>336309</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4822495359774091</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4415539912768222</v>
+        <v>0.4445965269864682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.521073182240934</v>
+        <v>0.518761027754799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>538</v>
@@ -1646,19 +1646,19 @@
         <v>564324</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>529251</v>
+        <v>527514</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>599399</v>
+        <v>598426</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4519141979003334</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4238276887388082</v>
+        <v>0.4224365123601441</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4800024635822634</v>
+        <v>0.4792238522860686</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>154834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>133647</v>
+        <v>134905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>176561</v>
+        <v>177731</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2578631547480598</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.222577835707239</v>
+        <v>0.2246737378739417</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2940486481192742</v>
+        <v>0.2959968675290044</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -1696,19 +1696,19 @@
         <v>185249</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161811</v>
+        <v>164774</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>209185</v>
+        <v>211459</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2857500854491827</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2495952169692087</v>
+        <v>0.2541665814172967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3226714939911539</v>
+        <v>0.3261787622139897</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>327</v>
@@ -1717,19 +1717,19 @@
         <v>340083</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>308754</v>
+        <v>311045</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>370877</v>
+        <v>372107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2723408453022675</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2472526301735338</v>
+        <v>0.2490866539077422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2970005231638576</v>
+        <v>0.2979854459583629</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>51526</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38804</v>
+        <v>36266</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69602</v>
+        <v>66519</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1025802673096562</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07725308844997787</v>
+        <v>0.07220108778277917</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1385671039042307</v>
+        <v>0.1324298414006803</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1842,19 +1842,19 @@
         <v>20460</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13497</v>
+        <v>13199</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31985</v>
+        <v>32568</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04219181015405971</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02783211997042071</v>
+        <v>0.02721808638816229</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06595655078590462</v>
+        <v>0.06715815424175385</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -1863,19 +1863,19 @@
         <v>71986</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57711</v>
+        <v>57695</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89545</v>
+        <v>89514</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07291700465761637</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0584574351988076</v>
+        <v>0.0584410402565327</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09070245022339969</v>
+        <v>0.09067135670230635</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>119625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>101783</v>
+        <v>102743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>142518</v>
+        <v>139232</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2381557981890553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2026350680511113</v>
+        <v>0.2045452161171717</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2837314682027076</v>
+        <v>0.2771891935431595</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>78</v>
@@ -1913,19 +1913,19 @@
         <v>79778</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>63408</v>
+        <v>63775</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>96706</v>
+        <v>97964</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1645122491764848</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1307544919287004</v>
+        <v>0.1315111561533728</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.19941881245306</v>
+        <v>0.2020143287461705</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>188</v>
@@ -1934,19 +1934,19 @@
         <v>199403</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>175963</v>
+        <v>176025</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>228570</v>
+        <v>229132</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2019815350950396</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1782376313148796</v>
+        <v>0.178300717052787</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2315251034338768</v>
+        <v>0.2320942744380433</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>181414</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>159173</v>
+        <v>158698</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>204721</v>
+        <v>203429</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.361167401138512</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3168898383273196</v>
+        <v>0.3159430500333806</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4075692593736862</v>
+        <v>0.4049968880953376</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>206</v>
@@ -1984,19 +1984,19 @@
         <v>211699</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>189185</v>
+        <v>192265</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>233222</v>
+        <v>235988</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4365482501127966</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3901218594827489</v>
+        <v>0.3964739744176365</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4809320648388739</v>
+        <v>0.4866355966679994</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>373</v>
@@ -2005,19 +2005,19 @@
         <v>393112</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>361007</v>
+        <v>360345</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>422110</v>
+        <v>422608</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3981950389914974</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3656739853312037</v>
+        <v>0.3650037535533184</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.427567662406749</v>
+        <v>0.4280719184153505</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>149733</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129687</v>
+        <v>128705</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>170337</v>
+        <v>170072</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2980965333627765</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2581869043310894</v>
+        <v>0.2562322726171363</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3391149122139728</v>
+        <v>0.3385879280171253</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>170</v>
@@ -2055,19 +2055,19 @@
         <v>173001</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>153018</v>
+        <v>153603</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>195898</v>
+        <v>194827</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3567476905566589</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3155421835584805</v>
+        <v>0.3167479879893649</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4039655557804719</v>
+        <v>0.4017566047059629</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>314</v>
@@ -2076,19 +2076,19 @@
         <v>322734</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>294962</v>
+        <v>292660</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>356450</v>
+        <v>353478</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3269064212558467</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2987754278653599</v>
+        <v>0.2964439459653369</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3610585916147909</v>
+        <v>0.3580485708563778</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>20911</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14341</v>
+        <v>13792</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30512</v>
+        <v>30863</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05822722993693243</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03993185408359751</v>
+        <v>0.03840543508049259</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08496030231020352</v>
+        <v>0.08593976082300421</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -2201,19 +2201,19 @@
         <v>8286</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3998</v>
+        <v>3515</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15472</v>
+        <v>15323</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02152367810328298</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01038606937113478</v>
+        <v>0.009129676059034777</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04018731875680162</v>
+        <v>0.03980139367865884</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>31</v>
@@ -2222,19 +2222,19 @@
         <v>29197</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20407</v>
+        <v>19899</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>40633</v>
+        <v>39681</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03923771442116527</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02742483584602036</v>
+        <v>0.02674164816667614</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05460548238027318</v>
+        <v>0.05332598893990973</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>67442</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53699</v>
+        <v>53689</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84168</v>
+        <v>84782</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.187792903064589</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1495262406982994</v>
+        <v>0.1494994056776134</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2343675084147542</v>
+        <v>0.2360781615705833</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -2272,19 +2272,19 @@
         <v>29346</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20088</v>
+        <v>20406</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40950</v>
+        <v>41092</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07622485834184904</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05217859640091725</v>
+        <v>0.0530051798499605</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1063667073805329</v>
+        <v>0.1067360894613423</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>97</v>
@@ -2293,19 +2293,19 @@
         <v>96787</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80328</v>
+        <v>80440</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114807</v>
+        <v>117919</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1300703391577373</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1079508112783081</v>
+        <v>0.1081020990935429</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1542867931706749</v>
+        <v>0.1584690400178952</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>146063</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>127389</v>
+        <v>127420</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>163988</v>
+        <v>163687</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.406714990230157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3547161854124167</v>
+        <v>0.3548027532159405</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4566285338076315</v>
+        <v>0.4557893914435512</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>150</v>
@@ -2343,19 +2343,19 @@
         <v>151655</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>133479</v>
+        <v>132070</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>171988</v>
+        <v>169369</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3939238138515168</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3467109721379772</v>
+        <v>0.343050258870473</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4467386008113019</v>
+        <v>0.439935022271457</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>294</v>
@@ -2364,19 +2364,19 @@
         <v>297718</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>270325</v>
+        <v>272392</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>324950</v>
+        <v>325326</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4000971499893001</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3632843933107374</v>
+        <v>0.366062708110631</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4366943679871713</v>
+        <v>0.4371993664680552</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>124713</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>108931</v>
+        <v>107268</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>143203</v>
+        <v>143515</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3472648767683216</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3033214249303547</v>
+        <v>0.2986911770493474</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3987508584945523</v>
+        <v>0.3996203094889327</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>191</v>
@@ -2414,19 +2414,19 @@
         <v>195699</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>174719</v>
+        <v>178413</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>214466</v>
+        <v>216075</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5083276497033512</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4538314169932082</v>
+        <v>0.4634269620531984</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5570740201675521</v>
+        <v>0.5612540667384508</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>319</v>
@@ -2435,19 +2435,19 @@
         <v>320412</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>294041</v>
+        <v>292077</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>348969</v>
+        <v>348616</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4305947964317974</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3951560447466224</v>
+        <v>0.3925163205178734</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4689725840891511</v>
+        <v>0.4684981118602352</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>5430</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1868</v>
+        <v>1926</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11643</v>
+        <v>11111</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01958667126080485</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006739882758312667</v>
+        <v>0.00694792205942141</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04199696419787629</v>
+        <v>0.04007979695605908</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3681</v>
+        <v>3714</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002238917798732913</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01121604497415004</v>
+        <v>0.01131669852186905</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2581,19 +2581,19 @@
         <v>6165</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2595</v>
+        <v>2673</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12078</v>
+        <v>12244</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01018229431644352</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004286821737548213</v>
+        <v>0.004414708821777823</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01994967193983099</v>
+        <v>0.02022339614350322</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>29280</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19914</v>
+        <v>19724</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40920</v>
+        <v>40500</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1056176744333887</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07183329682218048</v>
+        <v>0.0711473675211757</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1476068444183561</v>
+        <v>0.1460898996770837</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2631,19 +2631,19 @@
         <v>10096</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5536</v>
+        <v>5379</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17400</v>
+        <v>17657</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0307591825763325</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0168684500079479</v>
+        <v>0.01638830585600395</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05301380817340261</v>
+        <v>0.05379850099605143</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>40</v>
@@ -2652,19 +2652,19 @@
         <v>39375</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28928</v>
+        <v>29248</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>53751</v>
+        <v>51799</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06503619646568895</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04777983116109258</v>
+        <v>0.04830964932716119</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08877996034021948</v>
+        <v>0.08555583891733611</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>117748</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>101298</v>
+        <v>103757</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>132887</v>
+        <v>134180</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.424738931014653</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3654017414893529</v>
+        <v>0.3742729302862761</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4793489837660149</v>
+        <v>0.4840139818898149</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>116</v>
@@ -2702,19 +2702,19 @@
         <v>106110</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>91598</v>
+        <v>88822</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>123642</v>
+        <v>122101</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3232946932792923</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2790822197646232</v>
+        <v>0.2706218090009348</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3767133011351723</v>
+        <v>0.3720190684196186</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>238</v>
@@ -2723,19 +2723,19 @@
         <v>223857</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>199908</v>
+        <v>200979</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>246749</v>
+        <v>246812</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3697450753213181</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3301885930614908</v>
+        <v>0.331956306871392</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4075547683081712</v>
+        <v>0.4076588085411297</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>124767</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>109870</v>
+        <v>107587</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>140437</v>
+        <v>139626</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4500567232911534</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3963234772617831</v>
+        <v>0.3880878427687376</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5065822030506516</v>
+        <v>0.5036566731230688</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>227</v>
@@ -2773,19 +2773,19 @@
         <v>211273</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>194109</v>
+        <v>194952</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>227125</v>
+        <v>229010</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6437072063456423</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5914103346428651</v>
+        <v>0.5939791320421925</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6920035183051858</v>
+        <v>0.6977487785076975</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>357</v>
@@ -2794,19 +2794,19 @@
         <v>336040</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>313542</v>
+        <v>314363</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>361414</v>
+        <v>359605</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5550364338965494</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5178764961754988</v>
+        <v>0.5192326785924501</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5969474575400548</v>
+        <v>0.5939594405421279</v>
       </c>
     </row>
     <row r="33">
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10489</v>
+        <v>9949</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01396227049016295</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05263412318456274</v>
+        <v>0.04992516311589507</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6535</v>
+        <v>7520</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.004105993364643941</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02032696999253579</v>
+        <v>0.02339245968105602</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2940,19 +2940,19 @@
         <v>4102</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13170</v>
+        <v>12773</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007877780118191242</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001821056341419612</v>
+        <v>0.00181924126563688</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02528903701799247</v>
+        <v>0.02452658554185653</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>10944</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5467</v>
+        <v>5468</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>18341</v>
+        <v>17515</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0549174189681541</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02743319832320068</v>
+        <v>0.02743737143625948</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09203451269639991</v>
+        <v>0.08788992713234108</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -2990,19 +2990,19 @@
         <v>9006</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3612</v>
+        <v>3754</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17531</v>
+        <v>18085</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02801487213739105</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01123546250818809</v>
+        <v>0.0116786814638476</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05453247219580531</v>
+        <v>0.05625428967651377</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>19</v>
@@ -3011,19 +3011,19 @@
         <v>19950</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>11757</v>
+        <v>12179</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>31571</v>
+        <v>30862</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03830990224670475</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02257675016184053</v>
+        <v>0.02338647047539894</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06062373050956004</v>
+        <v>0.05926301493096391</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>69226</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>56673</v>
+        <v>57364</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>82402</v>
+        <v>82162</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3473711614379137</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2843803436751255</v>
+        <v>0.2878469216416895</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4134874292139245</v>
+        <v>0.4122860268836379</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>52</v>
@@ -3061,19 +3061,19 @@
         <v>59330</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>46622</v>
+        <v>45931</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>74626</v>
+        <v>76015</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1845538470372957</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1450254122942937</v>
+        <v>0.142875933838995</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2321350862564054</v>
+        <v>0.2364561458400531</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>123</v>
@@ -3082,19 +3082,19 @@
         <v>128556</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>109910</v>
+        <v>110559</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>147598</v>
+        <v>149158</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2468605559380015</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2110552501651894</v>
+        <v>0.2123011805661315</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2834261191490724</v>
+        <v>0.2864226540461551</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>116332</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>102136</v>
+        <v>103586</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>129706</v>
+        <v>130279</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5837491491037692</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5125129706678399</v>
+        <v>0.519787853353559</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.650857099540582</v>
+        <v>0.6537320116554818</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>219</v>
@@ -3132,19 +3132,19 @@
         <v>251822</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>234394</v>
+        <v>233667</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>265335</v>
+        <v>265573</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7833252874606693</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.729114521189772</v>
+        <v>0.7268528928303559</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8253595949403361</v>
+        <v>0.826101270499517</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>344</v>
@@ -3153,19 +3153,19 @@
         <v>368154</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>347559</v>
+        <v>347844</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>389403</v>
+        <v>389154</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7069517616971025</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6674032142777206</v>
+        <v>0.6679501898339345</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7477549579591936</v>
+        <v>0.7472771287905489</v>
       </c>
     </row>
     <row r="38">
@@ -3257,19 +3257,19 @@
         <v>259906</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>230248</v>
+        <v>229515</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>291531</v>
+        <v>298273</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.08347127968577556</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0739465496533554</v>
+        <v>0.07371113678439428</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09362794558190493</v>
+        <v>0.09579331435180473</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>150</v>
@@ -3278,19 +3278,19 @@
         <v>154315</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>130824</v>
+        <v>129769</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>180808</v>
+        <v>176855</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.04806405539027174</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04074729657508503</v>
+        <v>0.04041866541422754</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.05631563844676923</v>
+        <v>0.05508457021873582</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>400</v>
@@ -3299,19 +3299,19 @@
         <v>414221</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>373085</v>
+        <v>377356</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>455358</v>
+        <v>459687</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.06549641753661285</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.05899199921731067</v>
+        <v>0.05966744885033547</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.07200107592275662</v>
+        <v>0.07268552384002666</v>
       </c>
     </row>
     <row r="40">
@@ -3328,19 +3328,19 @@
         <v>653068</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>609079</v>
+        <v>604890</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>699482</v>
+        <v>700770</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2097393727364102</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1956119471208603</v>
+        <v>0.1942665321315216</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2246456609308113</v>
+        <v>0.2250593049761156</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>456</v>
@@ -3349,19 +3349,19 @@
         <v>467786</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>427645</v>
+        <v>430664</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>511179</v>
+        <v>512505</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1456999571348971</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1331974866394535</v>
+        <v>0.1341375704214236</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1592153628557323</v>
+        <v>0.15962845274665</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1094</v>
@@ -3370,19 +3370,19 @@
         <v>1120854</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1062940</v>
+        <v>1064234</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1183190</v>
+        <v>1192673</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1772290675528347</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1680717418782852</v>
+        <v>0.1682762961926935</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1870856365666646</v>
+        <v>0.1885850768023801</v>
       </c>
     </row>
     <row r="41">
@@ -3399,19 +3399,19 @@
         <v>1212197</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1159767</v>
+        <v>1158443</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1266723</v>
+        <v>1268527</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3893091920466404</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3724708166341623</v>
+        <v>0.3720455840310943</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4068206020284485</v>
+        <v>0.4074000691132426</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1281</v>
@@ -3420,19 +3420,19 @@
         <v>1316075</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1262564</v>
+        <v>1264876</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1373264</v>
+        <v>1373667</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4099141916405342</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3932472032531292</v>
+        <v>0.3939671880991137</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4277264880399002</v>
+        <v>0.4278520948459315</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2461</v>
@@ -3441,19 +3441,19 @@
         <v>2528273</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2444498</v>
+        <v>2442686</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2604659</v>
+        <v>2601572</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.399769543984785</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3865231847351818</v>
+        <v>0.3862366789305484</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.411847809746</v>
+        <v>0.4113596771732321</v>
       </c>
     </row>
     <row r="42">
@@ -3470,19 +3470,19 @@
         <v>988542</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>936759</v>
+        <v>942102</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1039184</v>
+        <v>1046103</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3174801555311739</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3008495135346281</v>
+        <v>0.3025655259744722</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3337442339480399</v>
+        <v>0.3359662762141201</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1245</v>
@@ -3491,19 +3491,19 @@
         <v>1272436</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1215839</v>
+        <v>1219026</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1328090</v>
+        <v>1327978</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3963217958342971</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3786939599162643</v>
+        <v>0.379686529453123</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4136563836733176</v>
+        <v>0.4136215156278456</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2230</v>
@@ -3512,19 +3512,19 @@
         <v>2260978</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2186676</v>
+        <v>2183997</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2339678</v>
+        <v>2333351</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3575049709257675</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3457564775774232</v>
+        <v>0.3453327520691483</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3699489832912589</v>
+        <v>0.3689486086909104</v>
       </c>
     </row>
     <row r="43">
@@ -3859,19 +3859,19 @@
         <v>10258</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5104</v>
+        <v>4915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18318</v>
+        <v>18045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02312056877799514</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01150323963609346</v>
+        <v>0.01107836245815278</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04128774469110967</v>
+        <v>0.04067133339799481</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -3880,19 +3880,19 @@
         <v>10301</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5213</v>
+        <v>5353</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18645</v>
+        <v>18469</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02476258606000525</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01253070405426619</v>
+        <v>0.01286690712483569</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04482011158672145</v>
+        <v>0.04439840334010882</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -3901,19 +3901,19 @@
         <v>20559</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13031</v>
+        <v>12055</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31006</v>
+        <v>30162</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02391514012141114</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01515861685896375</v>
+        <v>0.01402253755315402</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03606768308066292</v>
+        <v>0.03508567211823175</v>
       </c>
     </row>
     <row r="5">
@@ -3930,19 +3930,19 @@
         <v>29660</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20435</v>
+        <v>20128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41455</v>
+        <v>41752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06685027484373622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04605751782729609</v>
+        <v>0.04536544923209052</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09343448666485525</v>
+        <v>0.09410503493984125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -3951,19 +3951,19 @@
         <v>30171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21386</v>
+        <v>21363</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41640</v>
+        <v>42688</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07252858325246447</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05140959466946968</v>
+        <v>0.05135367046512834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1000977445460848</v>
+        <v>0.1026158944249763</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>59</v>
@@ -3972,19 +3972,19 @@
         <v>59831</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46076</v>
+        <v>46255</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76732</v>
+        <v>74908</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06959800544930593</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05359706891447918</v>
+        <v>0.05380540963904369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08925726986943827</v>
+        <v>0.08713545256717908</v>
       </c>
     </row>
     <row r="6">
@@ -4001,19 +4001,19 @@
         <v>68506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55230</v>
+        <v>54084</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83625</v>
+        <v>84196</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1544053120287667</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1244837959767926</v>
+        <v>0.1218991901813742</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1884812940817456</v>
+        <v>0.1897696526780812</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>60</v>
@@ -4022,19 +4022,19 @@
         <v>60158</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47000</v>
+        <v>47618</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>75192</v>
+        <v>78360</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.144613545843842</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1129820253568778</v>
+        <v>0.1144689611596974</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1807536567522042</v>
+        <v>0.1883679998579975</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>129</v>
@@ -4043,19 +4043,19 @@
         <v>128664</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>109739</v>
+        <v>110313</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>152899</v>
+        <v>150705</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.149667081257866</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1276524617538305</v>
+        <v>0.128319621624102</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1778580774952085</v>
+        <v>0.1753054611778153</v>
       </c>
     </row>
     <row r="7">
@@ -4072,19 +4072,19 @@
         <v>335252</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>316419</v>
+        <v>317852</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>353131</v>
+        <v>354065</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7556238443495019</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7131755807154159</v>
+        <v>0.7164045706045011</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7959198724192107</v>
+        <v>0.7980253392060528</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>307</v>
@@ -4093,19 +4093,19 @@
         <v>315363</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>297205</v>
+        <v>297011</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>333015</v>
+        <v>331704</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7580952848436883</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7144462124855908</v>
+        <v>0.7139786455980887</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8005291348201601</v>
+        <v>0.7973761335449423</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>634</v>
@@ -4114,19 +4114,19 @@
         <v>650615</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>624093</v>
+        <v>626756</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>672560</v>
+        <v>673938</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7568197731714169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7259686549406925</v>
+        <v>0.7290652638061592</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7823470015715228</v>
+        <v>0.78394946457377</v>
       </c>
     </row>
     <row r="8">
@@ -4218,19 +4218,19 @@
         <v>15638</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9494</v>
+        <v>9671</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25292</v>
+        <v>24496</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0233980892101754</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0142048854285686</v>
+        <v>0.0144704701792406</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03784241338014901</v>
+        <v>0.03665158017127052</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -4239,19 +4239,19 @@
         <v>9906</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4801</v>
+        <v>4827</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17785</v>
+        <v>18841</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01684274434309681</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008163198763377889</v>
+        <v>0.008206592579403092</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03023900335197697</v>
+        <v>0.03203363190587169</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -4260,19 +4260,19 @@
         <v>25544</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15813</v>
+        <v>17245</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>36301</v>
+        <v>38082</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02032960737142162</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01258461313890734</v>
+        <v>0.01372437151103865</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02889022874498592</v>
+        <v>0.0303074588490897</v>
       </c>
     </row>
     <row r="10">
@@ -4289,19 +4289,19 @@
         <v>35626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24907</v>
+        <v>25380</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48650</v>
+        <v>49984</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05330404599811939</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03726708488214391</v>
+        <v>0.0379748002959445</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07279194838130236</v>
+        <v>0.07478734509224071</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -4310,19 +4310,19 @@
         <v>24341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15764</v>
+        <v>15580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35547</v>
+        <v>35370</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04138517739235707</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02680205710991724</v>
+        <v>0.0264902566505659</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06043749318905277</v>
+        <v>0.0601379268135022</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -4331,19 +4331,19 @@
         <v>59967</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46447</v>
+        <v>44857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76095</v>
+        <v>74802</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04772496013812968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03696547418545761</v>
+        <v>0.03570016184462833</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06056054268415393</v>
+        <v>0.05953161227028717</v>
       </c>
     </row>
     <row r="11">
@@ -4360,19 +4360,19 @@
         <v>105500</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89365</v>
+        <v>86852</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>126480</v>
+        <v>124236</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1578507833964267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1337102081185362</v>
+        <v>0.1299500922325451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1892416128023278</v>
+        <v>0.185884549354165</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>89</v>
@@ -4381,19 +4381,19 @@
         <v>94081</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>77313</v>
+        <v>76295</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>112434</v>
+        <v>114277</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1599592346293928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1314500903288179</v>
+        <v>0.1297188750094491</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1911642617388275</v>
+        <v>0.1942979050914109</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>196</v>
@@ -4402,19 +4402,19 @@
         <v>199581</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>175713</v>
+        <v>173669</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>228954</v>
+        <v>227226</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1588377252656098</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1398425485582742</v>
+        <v>0.1382161453632734</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1822147404819158</v>
+        <v>0.1808398579659135</v>
       </c>
     </row>
     <row r="12">
@@ -4431,19 +4431,19 @@
         <v>511587</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>489212</v>
+        <v>489287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>531340</v>
+        <v>531739</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7654470813952785</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7319698418225291</v>
+        <v>0.7320812812292287</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7950030130936506</v>
+        <v>0.795598895106895</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>428</v>
@@ -4452,19 +4452,19 @@
         <v>459828</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>437928</v>
+        <v>436359</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>480282</v>
+        <v>480138</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7818128436351534</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7445780072864673</v>
+        <v>0.7419110508799334</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8165902958592561</v>
+        <v>0.8163453908212327</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>919</v>
@@ -4473,19 +4473,19 @@
         <v>971414</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>938780</v>
+        <v>940577</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>999200</v>
+        <v>1001551</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7731077072248389</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7471355116955739</v>
+        <v>0.7485652244099047</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7952213284761801</v>
+        <v>0.7970918660323123</v>
       </c>
     </row>
     <row r="13">
@@ -4577,19 +4577,19 @@
         <v>17248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10440</v>
+        <v>10818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26934</v>
+        <v>26418</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02614903049601426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01582710302250609</v>
+        <v>0.01640041556958758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04083276815895161</v>
+        <v>0.04005120047234017</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -4598,19 +4598,19 @@
         <v>11844</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5995</v>
+        <v>6768</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19080</v>
+        <v>20467</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01721491888746224</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008713491402623209</v>
+        <v>0.009836877953268888</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02773222980575965</v>
+        <v>0.02974863175394477</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -4619,19 +4619,19 @@
         <v>29092</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19346</v>
+        <v>20125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40690</v>
+        <v>41252</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0215878845952226</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01435555685363516</v>
+        <v>0.01493409542863832</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03019465347049833</v>
+        <v>0.03061157863968691</v>
       </c>
     </row>
     <row r="15">
@@ -4648,19 +4648,19 @@
         <v>31701</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21279</v>
+        <v>21358</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>43717</v>
+        <v>44616</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04806095170758678</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03225996396876804</v>
+        <v>0.03237964283229057</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06627688288113216</v>
+        <v>0.06763936690323723</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -4669,19 +4669,19 @@
         <v>32640</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22887</v>
+        <v>22002</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>44914</v>
+        <v>45380</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04744207036974127</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03326676986274462</v>
+        <v>0.0319793909632165</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06528249508035718</v>
+        <v>0.06596029979569012</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>62</v>
@@ -4690,19 +4690,19 @@
         <v>64341</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>49377</v>
+        <v>49839</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>81910</v>
+        <v>81282</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04774499325521101</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03664030779837776</v>
+        <v>0.03698366154210821</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06078214774330273</v>
+        <v>0.06031569882794991</v>
       </c>
     </row>
     <row r="16">
@@ -4719,19 +4719,19 @@
         <v>101776</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85813</v>
+        <v>84144</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121414</v>
+        <v>121436</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1542968543025919</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1300969783837366</v>
+        <v>0.1275662912424813</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1840695885923312</v>
+        <v>0.1841036302815186</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -4740,19 +4740,19 @@
         <v>69458</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53600</v>
+        <v>53169</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86458</v>
+        <v>87227</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1009571314289414</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07790754451699368</v>
+        <v>0.07728116548539302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1256668060848803</v>
+        <v>0.1267841136048854</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>169</v>
@@ -4761,19 +4761,19 @@
         <v>171234</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146706</v>
+        <v>148963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>197563</v>
+        <v>196014</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1270652425884927</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1088644657253988</v>
+        <v>0.1105390616026203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1466028860682365</v>
+        <v>0.1454537381037966</v>
       </c>
     </row>
     <row r="17">
@@ -4790,19 +4790,19 @@
         <v>508884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>484137</v>
+        <v>486821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>528382</v>
+        <v>528020</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.771493163493807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7339750736780636</v>
+        <v>0.7380451245811216</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8010531571185966</v>
+        <v>0.8005042205621841</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>533</v>
@@ -4811,19 +4811,19 @@
         <v>574052</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>554415</v>
+        <v>554601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>592397</v>
+        <v>593974</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8343858793138551</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8058426914800694</v>
+        <v>0.8061137504200732</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8610501644957387</v>
+        <v>0.863342097988708</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1012</v>
@@ -4832,19 +4832,19 @@
         <v>1082937</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1055103</v>
+        <v>1049940</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1116453</v>
+        <v>1109955</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8036018795610737</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7829472517433064</v>
+        <v>0.7791164870890842</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8284728719867334</v>
+        <v>0.8236506337674266</v>
       </c>
     </row>
     <row r="18">
@@ -4936,19 +4936,19 @@
         <v>11926</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5878</v>
+        <v>6340</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19696</v>
+        <v>21981</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01992774773633769</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009823070844915566</v>
+        <v>0.01059439732885057</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03291182480857117</v>
+        <v>0.03673135627464953</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -4957,19 +4957,19 @@
         <v>12113</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6530</v>
+        <v>6241</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21424</v>
+        <v>21016</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02040822365330811</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01100164847358868</v>
+        <v>0.01051432252089877</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03609473853171911</v>
+        <v>0.03540802283571529</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -4978,19 +4978,19 @@
         <v>24039</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15775</v>
+        <v>16004</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35162</v>
+        <v>36274</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0201669982429973</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01323417649963344</v>
+        <v>0.01342684473463482</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0294991764457381</v>
+        <v>0.03043148440084792</v>
       </c>
     </row>
     <row r="20">
@@ -5007,19 +5007,19 @@
         <v>26934</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17220</v>
+        <v>17643</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39569</v>
+        <v>38290</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04500638405263088</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02877499312192246</v>
+        <v>0.02948256997412912</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06611981445523019</v>
+        <v>0.06398270078861534</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -5028,19 +5028,19 @@
         <v>24191</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16014</v>
+        <v>14579</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37563</v>
+        <v>34835</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04075805692295121</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02698105097044446</v>
+        <v>0.02456347233819763</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0632863655465571</v>
+        <v>0.05869038533628841</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>45</v>
@@ -5049,19 +5049,19 @@
         <v>51125</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37716</v>
+        <v>37637</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>68080</v>
+        <v>68998</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0428909514527193</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0316415869638123</v>
+        <v>0.03157492262422662</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05711514130975752</v>
+        <v>0.05788536602016192</v>
       </c>
     </row>
     <row r="21">
@@ -5078,19 +5078,19 @@
         <v>91874</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>74119</v>
+        <v>74321</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>110589</v>
+        <v>113792</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1535226689345045</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1238533659559844</v>
+        <v>0.1241911656660787</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1847957719453369</v>
+        <v>0.1901491638193539</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>67</v>
@@ -5099,19 +5099,19 @@
         <v>76808</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>60034</v>
+        <v>60020</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>93811</v>
+        <v>94342</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1294075451942527</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1011455570501031</v>
+        <v>0.1011222022231501</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.158053785233902</v>
+        <v>0.1589485866248287</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>148</v>
@@ -5120,19 +5120,19 @@
         <v>168682</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>144749</v>
+        <v>143003</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>196484</v>
+        <v>194435</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1415146673485069</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1214357525454976</v>
+        <v>0.1199710003778268</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1648387485695578</v>
+        <v>0.1631196826742979</v>
       </c>
     </row>
     <row r="22">
@@ -5149,19 +5149,19 @@
         <v>467705</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>445387</v>
+        <v>447024</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>487828</v>
+        <v>490317</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7815431992765269</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7442495668461393</v>
+        <v>0.7469841640419826</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8151695689257302</v>
+        <v>0.8193286751970162</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>419</v>
@@ -5170,19 +5170,19 @@
         <v>480425</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>461027</v>
+        <v>460747</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>499644</v>
+        <v>499505</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8094261742294879</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7767438140128072</v>
+        <v>0.7762714897305594</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8418067124899298</v>
+        <v>0.8415726247756107</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>839</v>
@@ -5191,19 +5191,19 @@
         <v>948130</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>918893</v>
+        <v>918074</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>977225</v>
+        <v>975577</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7954273829557765</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.770898599503688</v>
+        <v>0.7702120465541689</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8198358740672745</v>
+        <v>0.8184533624542514</v>
       </c>
     </row>
     <row r="23">
@@ -5295,19 +5295,19 @@
         <v>6433</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13899</v>
+        <v>13975</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01551305336419976</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005251594324012083</v>
+        <v>0.005260455746123063</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03351829945218094</v>
+        <v>0.03370380348250539</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -5316,19 +5316,19 @@
         <v>6056</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2075</v>
+        <v>2856</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12179</v>
+        <v>12425</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01391383025232071</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004768114080066335</v>
+        <v>0.006561516809354198</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02797968950162321</v>
+        <v>0.02854457747322253</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -5337,19 +5337,19 @@
         <v>12489</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6191</v>
+        <v>6270</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20651</v>
+        <v>20493</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01469403479684901</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007284250871453498</v>
+        <v>0.007376967421932296</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02429698351871487</v>
+        <v>0.02411059627502433</v>
       </c>
     </row>
     <row r="25">
@@ -5366,19 +5366,19 @@
         <v>14604</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8360</v>
+        <v>8353</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23776</v>
+        <v>23628</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03522067239551792</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0201619584513347</v>
+        <v>0.02014497701198397</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05733870838233143</v>
+        <v>0.05698309711514447</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -5387,19 +5387,19 @@
         <v>13411</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7165</v>
+        <v>7202</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22522</v>
+        <v>24243</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03080941898756936</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01645938019113759</v>
+        <v>0.01654581742768923</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0517405479835252</v>
+        <v>0.05569441647061121</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -5408,19 +5408,19 @@
         <v>28015</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18590</v>
+        <v>18978</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40252</v>
+        <v>39999</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03296151392065442</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02187260553707011</v>
+        <v>0.02232850042485495</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04735841750166667</v>
+        <v>0.04706075854310781</v>
       </c>
     </row>
     <row r="26">
@@ -5437,19 +5437,19 @@
         <v>42910</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31684</v>
+        <v>31380</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57874</v>
+        <v>56637</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1034840562452391</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07640940124070879</v>
+        <v>0.07567772895621727</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1395699505161132</v>
+        <v>0.1365890735824435</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>36</v>
@@ -5458,19 +5458,19 @@
         <v>38809</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>27331</v>
+        <v>27551</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>53440</v>
+        <v>52537</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0891586633573762</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06278950771626357</v>
+        <v>0.06329486766991993</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1227708112914569</v>
+        <v>0.1206962109786408</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>77</v>
@@ -5479,19 +5479,19 @@
         <v>81720</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65388</v>
+        <v>65105</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>100116</v>
+        <v>100552</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09614751722663499</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07693253977237266</v>
+        <v>0.07659892991729933</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1177917673195419</v>
+        <v>0.1183041439058305</v>
       </c>
     </row>
     <row r="27">
@@ -5508,19 +5508,19 @@
         <v>350709</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>333570</v>
+        <v>334563</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>363630</v>
+        <v>365732</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8457822179950433</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8044494869691967</v>
+        <v>0.8068443058373409</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8769426061549026</v>
+        <v>0.8820124115816955</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>340</v>
@@ -5529,19 +5529,19 @@
         <v>377008</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>359603</v>
+        <v>360887</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>390422</v>
+        <v>389866</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8661180874027338</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8261328223893195</v>
+        <v>0.829082368554831</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8969333390425696</v>
+        <v>0.8956566530286452</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>660</v>
@@ -5550,19 +5550,19 @@
         <v>727717</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>706560</v>
+        <v>705943</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>748453</v>
+        <v>747293</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8561969340558616</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8313043358646089</v>
+        <v>0.83057922048412</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8805936450127343</v>
+        <v>0.8792290391045368</v>
       </c>
     </row>
     <row r="28">
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7663</v>
+        <v>7318</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007058128364143307</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02522905823506496</v>
+        <v>0.02409478408408629</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -5675,19 +5675,19 @@
         <v>3921</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9061</v>
+        <v>9801</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01141381026405496</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00287479909640737</v>
+        <v>0.002881352110617493</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02637226187121556</v>
+        <v>0.02852833080795606</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -5696,19 +5696,19 @@
         <v>6065</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2878</v>
+        <v>2068</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14298</v>
+        <v>13295</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00936998724610392</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004446090887549699</v>
+        <v>0.003194094776988663</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02208907613699827</v>
+        <v>0.02053945272760243</v>
       </c>
     </row>
     <row r="30">
@@ -5725,19 +5725,19 @@
         <v>7021</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2989</v>
+        <v>2953</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13859</v>
+        <v>14078</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02311533714553783</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.009841094105939363</v>
+        <v>0.009721629034339593</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04562711247323222</v>
+        <v>0.04634968724396549</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -5746,19 +5746,19 @@
         <v>7479</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14880</v>
+        <v>15194</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02176794569762171</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.008592918723247051</v>
+        <v>0.00859484362073247</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0433090625847222</v>
+        <v>0.04422533334725572</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>14</v>
@@ -5767,19 +5767,19 @@
         <v>14500</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7232</v>
+        <v>8470</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>23308</v>
+        <v>24389</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02240018416652763</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01117176620830517</v>
+        <v>0.0130847054942856</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03600764424653269</v>
+        <v>0.03767827527945313</v>
       </c>
     </row>
     <row r="31">
@@ -5796,19 +5796,19 @@
         <v>13251</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7168</v>
+        <v>7932</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22774</v>
+        <v>21925</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04362705996916657</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02360093388881305</v>
+        <v>0.0261165332279538</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07497956909936647</v>
+        <v>0.07218605689125758</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -5817,19 +5817,19 @@
         <v>17411</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10573</v>
+        <v>9977</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>26746</v>
+        <v>27154</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05067823102628836</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0307748743975648</v>
+        <v>0.02904055799915979</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07784938085902207</v>
+        <v>0.07903548309507048</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>30</v>
@@ -5838,19 +5838,19 @@
         <v>30662</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20744</v>
+        <v>21188</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>42149</v>
+        <v>43818</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04736959967046139</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03204721222234067</v>
+        <v>0.03273230598805064</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06511500252255788</v>
+        <v>0.06769388903347584</v>
       </c>
     </row>
     <row r="32">
@@ -5867,19 +5867,19 @@
         <v>281318</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>271604</v>
+        <v>270996</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>289773</v>
+        <v>288963</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9261994745211523</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8942182523153277</v>
+        <v>0.8922162314152385</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9540367132821745</v>
+        <v>0.9513692450937588</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>306</v>
@@ -5888,19 +5888,19 @@
         <v>314755</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>302980</v>
+        <v>303125</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>323452</v>
+        <v>323973</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.916140013012035</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8818647085289364</v>
+        <v>0.8822869960149977</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9414531632517373</v>
+        <v>0.9429684336371483</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>560</v>
@@ -5909,19 +5909,19 @@
         <v>596075</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>583346</v>
+        <v>580572</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>610799</v>
+        <v>608074</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9208602289169071</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9011962967533561</v>
+        <v>0.8969109768929631</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9436079529459748</v>
+        <v>0.9393978193299046</v>
       </c>
     </row>
     <row r="33">
@@ -6013,19 +6013,19 @@
         <v>3289</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8826</v>
+        <v>8442</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01361509232257093</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.004220461004137776</v>
+        <v>0.004250882361157171</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03654048583092596</v>
+        <v>0.03494946673348042</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5249</v>
+        <v>5196</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002844292698132345</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01436650592537624</v>
+        <v>0.01422266195932606</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -6055,19 +6055,19 @@
         <v>4328</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1051</v>
+        <v>1141</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10804</v>
+        <v>10112</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007131064629323771</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001730903008036276</v>
+        <v>0.001879900896405749</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01780166972029398</v>
+        <v>0.01666204412553716</v>
       </c>
     </row>
     <row r="35">
@@ -6084,19 +6084,19 @@
         <v>3045</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8928</v>
+        <v>8555</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01260683015667055</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003478449288896021</v>
+        <v>0.00348333562539184</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03696002296697273</v>
+        <v>0.03541595063010874</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -6105,19 +6105,19 @@
         <v>3377</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10090</v>
+        <v>9046</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.009242447106645709</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002995013739190103</v>
+        <v>0.003004210501940074</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02761752135771911</v>
+        <v>0.02475952016240646</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -6126,19 +6126,19 @@
         <v>6422</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2266</v>
+        <v>2329</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13249</v>
+        <v>13049</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01058146958663864</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003732954771803694</v>
+        <v>0.003838152034236174</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02183047037351103</v>
+        <v>0.02150139996000856</v>
       </c>
     </row>
     <row r="36">
@@ -6155,19 +6155,19 @@
         <v>16363</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9515</v>
+        <v>9616</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27617</v>
+        <v>28859</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06774322163913696</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03939124032659633</v>
+        <v>0.03981061051522385</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1143313464991892</v>
+        <v>0.119473895009076</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -6176,19 +6176,19 @@
         <v>11802</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5611</v>
+        <v>6382</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>20918</v>
+        <v>20360</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0323014913093647</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01535734978045197</v>
+        <v>0.01746782977587762</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05725278257294349</v>
+        <v>0.05572557153325951</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>23</v>
@@ -6197,19 +6197,19 @@
         <v>28165</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>17605</v>
+        <v>18808</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42761</v>
+        <v>43112</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04640727918659882</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02900790015538974</v>
+        <v>0.0309893051084139</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07045726224191469</v>
+        <v>0.07103494881696243</v>
       </c>
     </row>
     <row r="37">
@@ -6226,19 +6226,19 @@
         <v>218853</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>206609</v>
+        <v>205705</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>226908</v>
+        <v>227482</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9060348558816216</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8553481428535855</v>
+        <v>0.8516057518443427</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.939381708603528</v>
+        <v>0.9417603846146396</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>315</v>
@@ -6247,19 +6247,19 @@
         <v>349142</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>339419</v>
+        <v>339311</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>355841</v>
+        <v>356362</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9556117688858572</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9289976058332339</v>
+        <v>0.9287031684744848</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9739449006189776</v>
+        <v>0.9753727831205824</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>510</v>
@@ -6268,19 +6268,19 @@
         <v>567995</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>552068</v>
+        <v>552051</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>578800</v>
+        <v>579632</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9358801865974388</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9096368876257019</v>
+        <v>0.909609062717898</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9536827721835115</v>
+        <v>0.9550539126392453</v>
       </c>
     </row>
     <row r="38">
@@ -6372,19 +6372,19 @@
         <v>66935</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>52730</v>
+        <v>51077</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>84447</v>
+        <v>83449</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02010049545247379</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01583476027488777</v>
+        <v>0.01533839722491139</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02535951040908703</v>
+        <v>0.02505971010664125</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>53</v>
@@ -6393,19 +6393,19 @@
         <v>55181</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>42493</v>
+        <v>40933</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>71808</v>
+        <v>71081</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01608829557454184</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01238888336374162</v>
+        <v>0.01193432962008488</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02093588947227129</v>
+        <v>0.02072384195880432</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>119</v>
@@ -6414,19 +6414,19 @@
         <v>122116</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>102092</v>
+        <v>101334</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>145544</v>
+        <v>145886</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01806475436602887</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01510262698453555</v>
+        <v>0.01499045074693325</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02153050174560407</v>
+        <v>0.0215810642193063</v>
       </c>
     </row>
     <row r="40">
@@ -6443,19 +6443,19 @@
         <v>148591</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>126386</v>
+        <v>123150</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>173832</v>
+        <v>175628</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04462179412282889</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03795354447174295</v>
+        <v>0.03698169277540052</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05220150670728488</v>
+        <v>0.05274103389768635</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>129</v>
@@ -6464,19 +6464,19 @@
         <v>135610</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>115205</v>
+        <v>115363</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>161208</v>
+        <v>161030</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03953771189032458</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03358837929232564</v>
+        <v>0.03363444255941304</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04700079630305136</v>
+        <v>0.04694883600787551</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>270</v>
@@ -6485,19 +6485,19 @@
         <v>284201</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>255994</v>
+        <v>253314</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>320571</v>
+        <v>316761</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0420421930554692</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03786951429285493</v>
+        <v>0.03747303140480278</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04742233417806365</v>
+        <v>0.04685881543943379</v>
       </c>
     </row>
     <row r="41">
@@ -6514,19 +6514,19 @@
         <v>440180</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>404724</v>
+        <v>400145</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>478598</v>
+        <v>478349</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1321855391681607</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1215381730088841</v>
+        <v>0.1201633159206342</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1437224490325298</v>
+        <v>0.1436478821629087</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>346</v>
@@ -6535,19 +6535,19 @@
         <v>368528</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>331712</v>
+        <v>333658</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>407163</v>
+        <v>408156</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1074458887852187</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09671207458038296</v>
+        <v>0.09727942199803803</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1187099754183191</v>
+        <v>0.118999514487992</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>772</v>
@@ -6556,19 +6556,19 @@
         <v>808708</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>758185</v>
+        <v>758939</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>866365</v>
+        <v>866590</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1196329435146268</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1121590071828481</v>
+        <v>0.1122706012818422</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1281621939279335</v>
+        <v>0.1281956005676304</v>
       </c>
     </row>
     <row r="42">
@@ -6585,19 +6585,19 @@
         <v>2674307</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2627726</v>
+        <v>2628250</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2723677</v>
+        <v>2725016</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.8030921712565366</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.7891039155718267</v>
+        <v>0.7892610338383406</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8179178429486703</v>
+        <v>0.8183200032898397</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2648</v>
@@ -6606,19 +6606,19 @@
         <v>2870575</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2827688</v>
+        <v>2821651</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2913214</v>
+        <v>2911881</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.8369281037499149</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8244243579463165</v>
+        <v>0.8226642020269218</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.8493597780807925</v>
+        <v>0.8489711737183394</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5134</v>
@@ -6627,19 +6627,19 @@
         <v>5544883</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5473649</v>
+        <v>5476846</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5603659</v>
+        <v>5605472</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.8202601090638751</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8097224770066814</v>
+        <v>0.8101953743047632</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.8289548878593782</v>
+        <v>0.8292231167664749</v>
       </c>
     </row>
     <row r="43">
@@ -6974,19 +6974,19 @@
         <v>10454</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5291</v>
+        <v>5249</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20022</v>
+        <v>18853</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02542133766837877</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01286580153720553</v>
+        <v>0.01276381540438312</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04868983458645259</v>
+        <v>0.04584614339972296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -6995,19 +6995,19 @@
         <v>12253</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6619</v>
+        <v>6573</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20896</v>
+        <v>21199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03164619502185436</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01709537958085533</v>
+        <v>0.01697706093538199</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05396802359164326</v>
+        <v>0.05475226864847194</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -7016,19 +7016,19 @@
         <v>22707</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15052</v>
+        <v>14774</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33379</v>
+        <v>33853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02844005853170265</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01885282580413451</v>
+        <v>0.01850379191660579</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04180648564372826</v>
+        <v>0.0424007296892402</v>
       </c>
     </row>
     <row r="5">
@@ -7045,19 +7045,19 @@
         <v>39474</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27774</v>
+        <v>28187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53832</v>
+        <v>52547</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09599163573269036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06754034228624302</v>
+        <v>0.06854534915486338</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1309061205625489</v>
+        <v>0.1277817845900778</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -7066,19 +7066,19 @@
         <v>30809</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21412</v>
+        <v>21340</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42701</v>
+        <v>43078</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07957255652454924</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05530176484772527</v>
+        <v>0.05511508845834746</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1102848854757382</v>
+        <v>0.1112599533965338</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>67</v>
@@ -7087,19 +7087,19 @@
         <v>70283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55224</v>
+        <v>56320</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87094</v>
+        <v>87898</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08802926581034845</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06916767666112029</v>
+        <v>0.07054032215224067</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1090853006153151</v>
+        <v>0.1100922113933716</v>
       </c>
     </row>
     <row r="6">
@@ -7116,19 +7116,19 @@
         <v>92490</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75626</v>
+        <v>76116</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>109087</v>
+        <v>110792</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2249142002534094</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1839052672540745</v>
+        <v>0.185096494041673</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2652748770770877</v>
+        <v>0.2694209848878873</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>77</v>
@@ -7137,19 +7137,19 @@
         <v>75782</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61583</v>
+        <v>61789</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>91523</v>
+        <v>92792</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1957257975099789</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1590534699391877</v>
+        <v>0.1595851172384914</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2363819915994103</v>
+        <v>0.2396584898496434</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>165</v>
@@ -7158,19 +7158,19 @@
         <v>168272</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>147676</v>
+        <v>144984</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>193390</v>
+        <v>191128</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2107593955204949</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1849630959474538</v>
+        <v>0.1815918165226556</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2422194863194959</v>
+        <v>0.2393866659978543</v>
       </c>
     </row>
     <row r="7">
@@ -7187,19 +7187,19 @@
         <v>268805</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>249345</v>
+        <v>248798</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>287836</v>
+        <v>288121</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6536728263455215</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.606349123831025</v>
+        <v>0.6050194084335546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6999501516580393</v>
+        <v>0.7006440533651818</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>275</v>
@@ -7208,19 +7208,19 @@
         <v>268340</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>253550</v>
+        <v>249248</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>289064</v>
+        <v>284173</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6930554509436175</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6548559817607315</v>
+        <v>0.6437456305766778</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7465792986773189</v>
+        <v>0.7339485858759269</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>526</v>
@@ -7229,19 +7229,19 @@
         <v>537145</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>510741</v>
+        <v>513275</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>563288</v>
+        <v>563028</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.672771280137454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6397005333143633</v>
+        <v>0.6428739501046568</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7055147603134378</v>
+        <v>0.7051889432091478</v>
       </c>
     </row>
     <row r="8">
@@ -7333,19 +7333,19 @@
         <v>20109</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12007</v>
+        <v>12229</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31144</v>
+        <v>30199</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0345230598263853</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02061335637566919</v>
+        <v>0.02099420021433198</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05346866511224897</v>
+        <v>0.05184532502799626</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -7354,19 +7354,19 @@
         <v>15772</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8636</v>
+        <v>9477</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24823</v>
+        <v>24999</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02822397466507104</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01545400504955121</v>
+        <v>0.01695926652911074</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04442213065412575</v>
+        <v>0.04473622461774474</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -7375,19 +7375,19 @@
         <v>35881</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24732</v>
+        <v>25828</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49347</v>
+        <v>51740</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03143884110752124</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02167059941397209</v>
+        <v>0.02263043785238893</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04323833236518855</v>
+        <v>0.04533459745039937</v>
       </c>
     </row>
     <row r="10">
@@ -7404,19 +7404,19 @@
         <v>51010</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37595</v>
+        <v>38085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66627</v>
+        <v>66258</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08757357810679356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06454260703045205</v>
+        <v>0.06538512279565689</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.11438589871134</v>
+        <v>0.1137521284812598</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -7425,19 +7425,19 @@
         <v>54194</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40889</v>
+        <v>42566</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68924</v>
+        <v>70193</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09698237220024609</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07317208365468778</v>
+        <v>0.07617314683957693</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1233423032014097</v>
+        <v>0.1256132919630849</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -7446,19 +7446,19 @@
         <v>105204</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87960</v>
+        <v>87570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124659</v>
+        <v>128425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09218040245061768</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07707080068318582</v>
+        <v>0.07672982384025011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1092266535335379</v>
+        <v>0.1125270929703813</v>
       </c>
     </row>
     <row r="11">
@@ -7475,19 +7475,19 @@
         <v>145677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125940</v>
+        <v>124975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>168367</v>
+        <v>166461</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2500987267708128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2162150240277819</v>
+        <v>0.2145586291506211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2890526229803902</v>
+        <v>0.2857817255944892</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>124</v>
@@ -7496,19 +7496,19 @@
         <v>119502</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101633</v>
+        <v>101801</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139032</v>
+        <v>138931</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2138520106648398</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1818752945853494</v>
+        <v>0.1821761881808863</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2488024987745217</v>
+        <v>0.2486209627403967</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>262</v>
@@ -7517,19 +7517,19 @@
         <v>265179</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>238215</v>
+        <v>238417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>295194</v>
+        <v>295746</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2323512606787576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2087252166454297</v>
+        <v>0.2089024290002575</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2586513971467734</v>
+        <v>0.2591343058193091</v>
       </c>
     </row>
     <row r="12">
@@ -7546,19 +7546,19 @@
         <v>365682</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>340755</v>
+        <v>341844</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>386865</v>
+        <v>391486</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6278046352960084</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.58501027211417</v>
+        <v>0.5868789762290048</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.664171818481882</v>
+        <v>0.6721055717675426</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>378</v>
@@ -7567,19 +7567,19 @@
         <v>369338</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>347915</v>
+        <v>347562</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>392733</v>
+        <v>390566</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6609416424698431</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6226034184051087</v>
+        <v>0.6219716722488984</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7028077743431694</v>
+        <v>0.6989289294829085</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>732</v>
@@ -7588,19 +7588,19 @@
         <v>735020</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>703194</v>
+        <v>703005</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>767783</v>
+        <v>765398</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6440294957631035</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6161435423386394</v>
+        <v>0.6159775676698819</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6727366912643598</v>
+        <v>0.6706470320056821</v>
       </c>
     </row>
     <row r="13">
@@ -7692,19 +7692,19 @@
         <v>21284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13931</v>
+        <v>12936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33448</v>
+        <v>33679</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0324234253693952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02122234838666957</v>
+        <v>0.01970575943980439</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05095277887462128</v>
+        <v>0.05130530797243003</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -7713,19 +7713,19 @@
         <v>15477</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9588</v>
+        <v>8718</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25112</v>
+        <v>23285</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02416563180946713</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01497109702496079</v>
+        <v>0.01361251947035281</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03920984013691446</v>
+        <v>0.03635678712593567</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -7734,19 +7734,19 @@
         <v>36761</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26234</v>
+        <v>27185</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51114</v>
+        <v>49857</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02834545850758006</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02022819543418486</v>
+        <v>0.02096104290155318</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03941216844549402</v>
+        <v>0.038442936132204</v>
       </c>
     </row>
     <row r="15">
@@ -7763,19 +7763,19 @@
         <v>37152</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25895</v>
+        <v>26097</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51810</v>
+        <v>50522</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05659464927170409</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0394467504517621</v>
+        <v>0.03975532124187537</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07892481055558208</v>
+        <v>0.07696162631888082</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>44</v>
@@ -7784,19 +7784,19 @@
         <v>43134</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31666</v>
+        <v>31098</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>57992</v>
+        <v>56188</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06734842876552781</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0494429666248721</v>
+        <v>0.04855593505048121</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09054759055189972</v>
+        <v>0.08773161585401365</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>79</v>
@@ -7805,19 +7805,19 @@
         <v>80285</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>63968</v>
+        <v>63496</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>98621</v>
+        <v>98442</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0619052151143627</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04932339884277966</v>
+        <v>0.04895962106691373</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07604334534966209</v>
+        <v>0.07590524534202824</v>
       </c>
     </row>
     <row r="16">
@@ -7834,19 +7834,19 @@
         <v>126620</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>107014</v>
+        <v>106544</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>149044</v>
+        <v>148465</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1928848051702528</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1630182690492539</v>
+        <v>0.1623028967823089</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2270452790636485</v>
+        <v>0.2261622921694143</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>111</v>
@@ -7855,19 +7855,19 @@
         <v>111209</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>93593</v>
+        <v>92915</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>131786</v>
+        <v>129538</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1736403904787018</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1461347000568733</v>
+        <v>0.1450772180351394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2057691159148272</v>
+        <v>0.2022599039674661</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>228</v>
@@ -7876,19 +7876,19 @@
         <v>237828</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>210899</v>
+        <v>210961</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>268163</v>
+        <v>266354</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1833812876970142</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1626166781219997</v>
+        <v>0.1626645441788276</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2067711672575814</v>
+        <v>0.205375990521639</v>
       </c>
     </row>
     <row r="17">
@@ -7905,19 +7905,19 @@
         <v>471396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>444000</v>
+        <v>447897</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>493244</v>
+        <v>495381</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7180971201886479</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6763636381472286</v>
+        <v>0.682299021993046</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7513792357976988</v>
+        <v>0.7546347012282515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>473</v>
@@ -7926,19 +7926,19 @@
         <v>470636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>447255</v>
+        <v>449787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>490750</v>
+        <v>493665</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7348455489463033</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6983394537896538</v>
+        <v>0.7022931868647275</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7662518791381139</v>
+        <v>0.7708039907699683</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>928</v>
@@ -7947,19 +7947,19 @@
         <v>942032</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>907344</v>
+        <v>911904</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>971351</v>
+        <v>975249</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.726368038681043</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6996211482285618</v>
+        <v>0.7031377752062196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7489748341764192</v>
+        <v>0.751980823229475</v>
       </c>
     </row>
     <row r="18">
@@ -8051,19 +8051,19 @@
         <v>20552</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12332</v>
+        <v>12312</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31464</v>
+        <v>32317</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03293520663016083</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01976180393182659</v>
+        <v>0.0197306582051104</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05042301894698214</v>
+        <v>0.05178927943647314</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -8072,19 +8072,19 @@
         <v>20882</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12745</v>
+        <v>12809</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31620</v>
+        <v>31166</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03285893993528113</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02005475701198251</v>
+        <v>0.02015516035159445</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04975575959142944</v>
+        <v>0.04904224302529727</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -8093,19 +8093,19 @@
         <v>41434</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29029</v>
+        <v>29951</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55902</v>
+        <v>56950</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03289672546543396</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02304754845637654</v>
+        <v>0.02378010257482613</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04438365608962826</v>
+        <v>0.04521637953099583</v>
       </c>
     </row>
     <row r="20">
@@ -8122,19 +8122,19 @@
         <v>41536</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30344</v>
+        <v>29581</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56434</v>
+        <v>55665</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06656298402520584</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04862768877360369</v>
+        <v>0.04740484281114125</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09043775846686376</v>
+        <v>0.08920506579275003</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -8143,19 +8143,19 @@
         <v>39236</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26887</v>
+        <v>27495</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53124</v>
+        <v>53681</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06174057270364115</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04230931667155774</v>
+        <v>0.04326558119466745</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08359504560502867</v>
+        <v>0.08447079956487283</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -8164,19 +8164,19 @@
         <v>80772</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63349</v>
+        <v>63430</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102290</v>
+        <v>100570</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06412978556631668</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05029651787515369</v>
+        <v>0.05036109211950905</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08121424459428211</v>
+        <v>0.07984841595413573</v>
       </c>
     </row>
     <row r="21">
@@ -8193,19 +8193,19 @@
         <v>116681</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>97389</v>
+        <v>98809</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>138591</v>
+        <v>137609</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1869862077676995</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1560705067139992</v>
+        <v>0.1583452370783734</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2220983050281753</v>
+        <v>0.2205243426523375</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>98</v>
@@ -8214,19 +8214,19 @@
         <v>109642</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>90802</v>
+        <v>90636</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>130924</v>
+        <v>129342</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1725300907286911</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1428841743699421</v>
+        <v>0.1426223941349334</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2060189799881975</v>
+        <v>0.2035294780513955</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>202</v>
@@ -8235,19 +8235,19 @@
         <v>226324</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>199341</v>
+        <v>197655</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>257233</v>
+        <v>255925</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1796922215530554</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1582692074033727</v>
+        <v>0.1569307211754361</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2042331654040333</v>
+        <v>0.2031942154449269</v>
       </c>
     </row>
     <row r="22">
@@ -8264,19 +8264,19 @@
         <v>445240</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>420959</v>
+        <v>423716</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>467944</v>
+        <v>467210</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7135156015769338</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6746043610480162</v>
+        <v>0.6790223136282744</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7498990384781732</v>
+        <v>0.7487236363665445</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>438</v>
@@ -8285,19 +8285,19 @@
         <v>465737</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>442992</v>
+        <v>442259</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>489270</v>
+        <v>488654</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7328703966323866</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6970796702066822</v>
+        <v>0.6959255688369683</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7699007265977511</v>
+        <v>0.7689313162788287</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>843</v>
@@ -8306,19 +8306,19 @@
         <v>910978</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>877534</v>
+        <v>877573</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>943295</v>
+        <v>947822</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7232812674151939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6967281885892522</v>
+        <v>0.6967592142406731</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7489395223709868</v>
+        <v>0.7525343603231608</v>
       </c>
     </row>
     <row r="23">
@@ -8410,19 +8410,19 @@
         <v>10243</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5378</v>
+        <v>4393</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20020</v>
+        <v>20493</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02161159398374332</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01134648304595958</v>
+        <v>0.00926798830466812</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04223851524282252</v>
+        <v>0.04323637470972997</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -8431,19 +8431,19 @@
         <v>9027</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4483</v>
+        <v>3507</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16886</v>
+        <v>17571</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0187985915848093</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009336258123317152</v>
+        <v>0.007303452825017504</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03516503493669582</v>
+        <v>0.03659173504092599</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -8452,19 +8452,19 @@
         <v>19270</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11718</v>
+        <v>11059</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30618</v>
+        <v>30853</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0201959283610147</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01228047991633805</v>
+        <v>0.01158995839730724</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03208857078663541</v>
+        <v>0.03233434545294357</v>
       </c>
     </row>
     <row r="25">
@@ -8481,19 +8481,19 @@
         <v>33735</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22564</v>
+        <v>23573</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46699</v>
+        <v>48029</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07117361039429725</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04760441811999016</v>
+        <v>0.04973500216498269</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09852542127618916</v>
+        <v>0.1013305165447778</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -8502,19 +8502,19 @@
         <v>20786</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12880</v>
+        <v>12497</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33388</v>
+        <v>32217</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04328558340031375</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02682159660607664</v>
+        <v>0.02602430740725083</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06953065105865529</v>
+        <v>0.06709184246319612</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -8523,19 +8523,19 @@
         <v>54520</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41929</v>
+        <v>41081</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70531</v>
+        <v>73135</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05713874106177516</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04394237436757334</v>
+        <v>0.04305420486241003</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07391848548685244</v>
+        <v>0.07664714155738532</v>
       </c>
     </row>
     <row r="26">
@@ -8552,19 +8552,19 @@
         <v>66584</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>51198</v>
+        <v>51606</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>83273</v>
+        <v>82721</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1404779006583312</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1080175138412964</v>
+        <v>0.1088779437840482</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.175688585060753</v>
+        <v>0.1745242531840841</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>68</v>
@@ -8573,19 +8573,19 @@
         <v>79358</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>62908</v>
+        <v>61976</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>98662</v>
+        <v>98192</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1652605181340449</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1310045822950524</v>
+        <v>0.1290640441741596</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2054611313286586</v>
+        <v>0.2044819889303944</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>127</v>
@@ -8594,19 +8594,19 @@
         <v>145941</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>124419</v>
+        <v>123100</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>171429</v>
+        <v>170778</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1529499481812542</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1303945703139803</v>
+        <v>0.1290115216580104</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1796614358784923</v>
+        <v>0.1789796255473284</v>
       </c>
     </row>
     <row r="27">
@@ -8623,19 +8623,19 @@
         <v>363418</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>344174</v>
+        <v>342880</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>382993</v>
+        <v>381427</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7667368949636283</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7261364440112408</v>
+        <v>0.7234055439687297</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8080360486229232</v>
+        <v>0.8047320562503636</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>325</v>
@@ -8644,19 +8644,19 @@
         <v>371027</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>348566</v>
+        <v>350404</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>388651</v>
+        <v>391706</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7726553068808321</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7258803769602323</v>
+        <v>0.7297082525377536</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8093564435516862</v>
+        <v>0.815720399949485</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>649</v>
@@ -8665,19 +8665,19 @@
         <v>734444</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>705764</v>
+        <v>705825</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>759248</v>
+        <v>762818</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7697153823959559</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7396575727279129</v>
+        <v>0.739721659607502</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7957107530612202</v>
+        <v>0.7994520700680656</v>
       </c>
     </row>
     <row r="28">
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5363</v>
+        <v>6463</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003293822251924293</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01641905978923405</v>
+        <v>0.01978791677745704</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -8790,19 +8790,19 @@
         <v>5183</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1945</v>
+        <v>1902</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11643</v>
+        <v>11836</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01421852138977007</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005336533244679548</v>
+        <v>0.005218615941150134</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03194166641943322</v>
+        <v>0.03247163101084164</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -8811,19 +8811,19 @@
         <v>6259</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2243</v>
+        <v>2920</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13187</v>
+        <v>13370</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009055438775386893</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003245459096249564</v>
+        <v>0.00422470663649942</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01907989502821777</v>
+        <v>0.01934469802394642</v>
       </c>
     </row>
     <row r="30">
@@ -8840,19 +8840,19 @@
         <v>15373</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9096</v>
+        <v>9087</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24271</v>
+        <v>25579</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04706432880921242</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02784750681633499</v>
+        <v>0.02781856071866579</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07430440127490798</v>
+        <v>0.07830946720197909</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -8861,19 +8861,19 @@
         <v>6271</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2183</v>
+        <v>2098</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13722</v>
+        <v>12859</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0172035273538388</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005989022173926942</v>
+        <v>0.005754515350811507</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03764470764650756</v>
+        <v>0.03527780665007861</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -8882,19 +8882,19 @@
         <v>21644</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13726</v>
+        <v>13399</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>33355</v>
+        <v>31958</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03131593291306308</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01986038440189664</v>
+        <v>0.01938681990598147</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0482602132614733</v>
+        <v>0.04623883734914905</v>
       </c>
     </row>
     <row r="31">
@@ -8911,19 +8911,19 @@
         <v>38778</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28191</v>
+        <v>26500</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>52003</v>
+        <v>51814</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1187180360625544</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08630676968853032</v>
+        <v>0.08112964057316235</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1592063028513051</v>
+        <v>0.1586286901644329</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -8932,19 +8932,19 @@
         <v>34183</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24620</v>
+        <v>23693</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47009</v>
+        <v>45892</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09377847471489645</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06754398310072081</v>
+        <v>0.06499962501621841</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.128968342100629</v>
+        <v>0.1259026190001618</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>68</v>
@@ -8953,19 +8953,19 @@
         <v>72961</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>57162</v>
+        <v>57434</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>89468</v>
+        <v>91429</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1055650707556389</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08270711651661976</v>
+        <v>0.08310004670658154</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.129449743705415</v>
+        <v>0.1322863758473171</v>
       </c>
     </row>
     <row r="32">
@@ -8982,19 +8982,19 @@
         <v>271411</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>256533</v>
+        <v>256903</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>284119</v>
+        <v>286328</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8309238128763089</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.785374477093147</v>
+        <v>0.7865078287460759</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8698280665289941</v>
+        <v>0.876591169557129</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>299</v>
@@ -9003,19 +9003,19 @@
         <v>318868</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>303659</v>
+        <v>305772</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>329880</v>
+        <v>331512</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8747994765414947</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8330748966235628</v>
+        <v>0.8388728091291349</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9050106735516712</v>
+        <v>0.9094882010210145</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>565</v>
@@ -9024,19 +9024,19 @@
         <v>590280</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>569854</v>
+        <v>567793</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>608568</v>
+        <v>607488</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8540635575559111</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8245093358327057</v>
+        <v>0.8215279556785733</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.880524435553252</v>
+        <v>0.8789614829746264</v>
       </c>
     </row>
     <row r="33">
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4353</v>
+        <v>4368</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003475050441683111</v>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01749359120128234</v>
+        <v>0.01755486222789995</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -9149,19 +9149,19 @@
         <v>5352</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>12284</v>
+        <v>12267</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01401184732325392</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003521308466356354</v>
+        <v>0.003500328777750412</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03216140841366043</v>
+        <v>0.03211829449171769</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -9170,19 +9170,19 @@
         <v>6216</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2219</v>
+        <v>2582</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14040</v>
+        <v>13975</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.009855226587690407</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003518089005919914</v>
+        <v>0.004093612749960393</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0222585394595056</v>
+        <v>0.0221558954600361</v>
       </c>
     </row>
     <row r="35">
@@ -9199,19 +9199,19 @@
         <v>5164</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1759</v>
+        <v>1790</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10527</v>
+        <v>10542</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02075229023459076</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007068507735139477</v>
+        <v>0.007194547677182857</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04230519928215498</v>
+        <v>0.04236776248069554</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -9220,19 +9220,19 @@
         <v>7840</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2875</v>
+        <v>2723</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16827</v>
+        <v>16149</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02052625119018818</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007527533634653201</v>
+        <v>0.007129256720028292</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04405649063952333</v>
+        <v>0.04228134271776925</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -9241,19 +9241,19 @@
         <v>13004</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7423</v>
+        <v>7326</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>24173</v>
+        <v>21917</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02061542046900896</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01176888350935804</v>
+        <v>0.0116146890044317</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03832295768921277</v>
+        <v>0.03474580469964237</v>
       </c>
     </row>
     <row r="36">
@@ -9270,19 +9270,19 @@
         <v>19214</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12473</v>
+        <v>12586</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27988</v>
+        <v>28635</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07721930080965868</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05012540311074463</v>
+        <v>0.05058023068947504</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1124786865168366</v>
+        <v>0.1150782537651136</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -9291,19 +9291,19 @@
         <v>10622</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5238</v>
+        <v>4998</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>21149</v>
+        <v>20114</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02781081758621821</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01371521195076393</v>
+        <v>0.01308642076180984</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0553740030372387</v>
+        <v>0.05266196619500557</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>30</v>
@@ -9312,19 +9312,19 @@
         <v>29836</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>20825</v>
+        <v>19972</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42939</v>
+        <v>41789</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04730178131908633</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0330148099076453</v>
+        <v>0.03166328104709422</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06807427859145</v>
+        <v>0.06625032655207784</v>
       </c>
     </row>
     <row r="37">
@@ -9341,19 +9341,19 @@
         <v>223586</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>213689</v>
+        <v>214215</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>231365</v>
+        <v>231506</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8985533585140675</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8587784569917393</v>
+        <v>0.8608921597220662</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9298159450035286</v>
+        <v>0.9303811398896196</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>270</v>
@@ -9362,19 +9362,19 @@
         <v>358126</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>345287</v>
+        <v>345057</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>367342</v>
+        <v>367661</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9376510839003397</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9040371107531116</v>
+        <v>0.9034347489233945</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9617814682633257</v>
+        <v>0.9626174391312582</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>533</v>
@@ -9383,19 +9383,19 @@
         <v>581712</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>566391</v>
+        <v>564936</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>593755</v>
+        <v>594002</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9222275716242143</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8979383654815665</v>
+        <v>0.8956323767214659</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9413205507469738</v>
+        <v>0.941712834083422</v>
       </c>
     </row>
     <row r="38">
@@ -9487,19 +9487,19 @@
         <v>84583</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>67448</v>
+        <v>67546</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>105702</v>
+        <v>104037</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02544916549513821</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02029357976889251</v>
+        <v>0.02032295063611143</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03180350736950689</v>
+        <v>0.03130249305382412</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>80</v>
@@ -9508,19 +9508,19 @@
         <v>83945</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>66306</v>
+        <v>66612</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>103691</v>
+        <v>103264</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02434183019309305</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0192271259746424</v>
+        <v>0.01931565094730928</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03006763532604871</v>
+        <v>0.02994388106670903</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>156</v>
@@ -9529,19 +9529,19 @@
         <v>168528</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>142109</v>
+        <v>142331</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>196675</v>
+        <v>197550</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02488528046166945</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02098416987627015</v>
+        <v>0.02101698175295561</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02904159023833448</v>
+        <v>0.02917081486742187</v>
       </c>
     </row>
     <row r="40">
@@ -9558,19 +9558,19 @@
         <v>223443</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>193629</v>
+        <v>195522</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>252650</v>
+        <v>253885</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06722896748217794</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05825857307916487</v>
+        <v>0.05882817568271387</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07601670378429824</v>
+        <v>0.07638827763343699</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>194</v>
@@ -9579,19 +9579,19 @@
         <v>202269</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>175709</v>
+        <v>175527</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>233764</v>
+        <v>232677</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.05865288702863457</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05095096198734649</v>
+        <v>0.05089830978616131</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06778565007819244</v>
+        <v>0.06747018991880524</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>401</v>
@@ -9600,19 +9600,19 @@
         <v>425712</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>386529</v>
+        <v>388404</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>465905</v>
+        <v>467179</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06286179576404927</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05707591012206239</v>
+        <v>0.05735273933217386</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06879682854968122</v>
+        <v>0.06898495252705864</v>
       </c>
     </row>
     <row r="41">
@@ -9629,19 +9629,19 @@
         <v>606043</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>564738</v>
+        <v>562699</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>653426</v>
+        <v>653654</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1823449789180612</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1699170135514547</v>
+        <v>0.1693036855277738</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1966014897260141</v>
+        <v>0.1966700497304011</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>517</v>
@@ -9650,19 +9650,19 @@
         <v>540297</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>498888</v>
+        <v>499471</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>585585</v>
+        <v>587594</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1566722770644114</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1446647542453106</v>
+        <v>0.1448336609643083</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1698046292619577</v>
+        <v>0.1703870316848981</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1082</v>
@@ -9671,19 +9671,19 @@
         <v>1146341</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1083497</v>
+        <v>1085820</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1210495</v>
+        <v>1203727</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1692717459801769</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1599921012692313</v>
+        <v>0.1603351475803235</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1787448997299295</v>
+        <v>0.1777454851083829</v>
       </c>
     </row>
     <row r="42">
@@ -9700,19 +9700,19 @@
         <v>2409540</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2357337</v>
+        <v>2353575</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2462525</v>
+        <v>2459605</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7249768881046227</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.709270383828185</v>
+        <v>0.7081383387229245</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7409189960496633</v>
+        <v>0.7400404644676901</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2458</v>
@@ -9721,19 +9721,19 @@
         <v>2622071</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2569131</v>
+        <v>2573219</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2670602</v>
+        <v>2671857</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.760333005713861</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.7449817259113296</v>
+        <v>0.7461670374936415</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.7744055824920092</v>
+        <v>0.7747694858545969</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4776</v>
@@ -9742,19 +9742,19 @@
         <v>5031611</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4961681</v>
+        <v>4962538</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5106760</v>
+        <v>5106888</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.7429811777941044</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.7326551504055615</v>
+        <v>0.7327816891780637</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.7540778782390301</v>
+        <v>0.7540967876609792</v>
       </c>
     </row>
     <row r="43">
@@ -10092,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18731</v>
+        <v>19136</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01249598153169405</v>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04593194480524296</v>
+        <v>0.04692534253322573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -10110,19 +10110,19 @@
         <v>9075</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20707</v>
+        <v>20895</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02532026703471841</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009764601801490465</v>
+        <v>0.007671502870834522</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05777330745294333</v>
+        <v>0.05829897515924944</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -10131,19 +10131,19 @@
         <v>14171</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5145</v>
+        <v>5954</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28778</v>
+        <v>28661</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01849492635403831</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006714598575890615</v>
+        <v>0.007770505328098207</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0375582455278507</v>
+        <v>0.03740547477094991</v>
       </c>
     </row>
     <row r="5">
@@ -10160,19 +10160,19 @@
         <v>30101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15606</v>
+        <v>16712</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52259</v>
+        <v>52120</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07381545263751008</v>
+        <v>0.07381545263751006</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0382690233100804</v>
+        <v>0.04098214533412036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1281499229052682</v>
+        <v>0.1278093854816166</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -10181,19 +10181,19 @@
         <v>16950</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8900</v>
+        <v>8545</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30049</v>
+        <v>29460</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04729120865697906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02483002038908256</v>
+        <v>0.02384011453975814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08383700207135293</v>
+        <v>0.08219538263814509</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -10202,19 +10202,19 @@
         <v>47052</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30976</v>
+        <v>31130</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68752</v>
+        <v>71192</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06140794065128068</v>
+        <v>0.06140794065128067</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04042714368253222</v>
+        <v>0.04062895981601215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08972951720116884</v>
+        <v>0.09291412974601537</v>
       </c>
     </row>
     <row r="6">
@@ -10231,19 +10231,19 @@
         <v>66479</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44229</v>
+        <v>44309</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95785</v>
+        <v>96989</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1630219802140514</v>
+        <v>0.1630219802140513</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1084584149449224</v>
+        <v>0.108655678521944</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2348865218465557</v>
+        <v>0.2378378013011096</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -10252,19 +10252,19 @@
         <v>37450</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23245</v>
+        <v>23163</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58231</v>
+        <v>57562</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1044871914958404</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06485479390579843</v>
+        <v>0.06462657270193699</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1624665905970297</v>
+        <v>0.1606000992659969</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>42</v>
@@ -10273,19 +10273,19 @@
         <v>103929</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>76032</v>
+        <v>76606</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>135478</v>
+        <v>136907</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1356405742382318</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09923134374242494</v>
+        <v>0.09998022909351548</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1768150126065992</v>
+        <v>0.1786800884487574</v>
       </c>
     </row>
     <row r="7">
@@ -10302,19 +10302,19 @@
         <v>306117</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>272983</v>
+        <v>273210</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>334602</v>
+        <v>333211</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7506665856167446</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6694155617618139</v>
+        <v>0.6699717421043758</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8205194961833188</v>
+        <v>0.8171075402945874</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>170</v>
@@ -10323,19 +10323,19 @@
         <v>294943</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>273473</v>
+        <v>270208</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>312955</v>
+        <v>313029</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8229013328124621</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7629984757631063</v>
+        <v>0.7538874689852932</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8731537060862705</v>
+        <v>0.873360332126103</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>305</v>
@@ -10344,19 +10344,19 @@
         <v>601060</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>563923</v>
+        <v>563819</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>634975</v>
+        <v>633687</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7844565587564492</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7359886416257524</v>
+        <v>0.735852535726069</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8287199106466646</v>
+        <v>0.8270391363752192</v>
       </c>
     </row>
     <row r="8">
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7078</v>
+        <v>5758</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002710019743589209</v>
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01484161828344827</v>
+        <v>0.0120734866478755</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -10469,19 +10469,19 @@
         <v>6940</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2672</v>
+        <v>2588</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14927</v>
+        <v>14924</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01396652206750808</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005376339200635327</v>
+        <v>0.005207412687035484</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0300411844751288</v>
+        <v>0.03003374989150459</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -10490,19 +10490,19 @@
         <v>8232</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3387</v>
+        <v>3536</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17460</v>
+        <v>16991</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.008453930595366406</v>
+        <v>0.008453930595366404</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00347803402873368</v>
+        <v>0.003631472389753107</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01792993644113573</v>
+        <v>0.01744808464467809</v>
       </c>
     </row>
     <row r="10">
@@ -10519,19 +10519,19 @@
         <v>36301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23972</v>
+        <v>24358</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54643</v>
+        <v>53326</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07612089942555127</v>
+        <v>0.07612089942555128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05026754844217987</v>
+        <v>0.0510763625048735</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1145820309756051</v>
+        <v>0.1118212712565843</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -10540,19 +10540,19 @@
         <v>19194</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11784</v>
+        <v>11716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30366</v>
+        <v>30007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03862652620486347</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02371425541021037</v>
+        <v>0.02357903049836809</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06111005388647244</v>
+        <v>0.0603891813462963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -10561,19 +10561,19 @@
         <v>55495</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40884</v>
+        <v>40375</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75725</v>
+        <v>75348</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05698846103345264</v>
+        <v>0.05698846103345263</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04198424055505771</v>
+        <v>0.04146132600983837</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07776325287392631</v>
+        <v>0.07737626239107433</v>
       </c>
     </row>
     <row r="11">
@@ -10590,19 +10590,19 @@
         <v>67415</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>49427</v>
+        <v>48914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88086</v>
+        <v>89309</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1413628626856487</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1036445691036595</v>
+        <v>0.1025681201306076</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1847102689919581</v>
+        <v>0.18727401529559</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -10611,19 +10611,19 @@
         <v>60931</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46064</v>
+        <v>47377</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77493</v>
+        <v>78623</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1226221944625486</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09270299170083363</v>
+        <v>0.09534475215020835</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1559521604294843</v>
+        <v>0.1582270094707331</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>101</v>
@@ -10632,19 +10632,19 @@
         <v>128346</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>106427</v>
+        <v>105602</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>156735</v>
+        <v>155756</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1317999696591455</v>
+        <v>0.1317999696591454</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1092911845722814</v>
+        <v>0.1084444935758974</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1609536085215873</v>
+        <v>0.1599479555114371</v>
       </c>
     </row>
     <row r="12">
@@ -10661,19 +10661,19 @@
         <v>371882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>347658</v>
+        <v>348195</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>392556</v>
+        <v>393328</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7798062181452108</v>
+        <v>0.7798062181452107</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7290111328171041</v>
+        <v>0.7301375371232297</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8231593079827179</v>
+        <v>0.8247768437033162</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>374</v>
@@ -10682,19 +10682,19 @@
         <v>409836</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>389762</v>
+        <v>390080</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>426059</v>
+        <v>426556</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8247847572650799</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7843863071037859</v>
+        <v>0.7850254411452521</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.857433172067977</v>
+        <v>0.8584330168788812</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>608</v>
@@ -10703,19 +10703,19 @@
         <v>781719</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>748770</v>
+        <v>750478</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>808081</v>
+        <v>810763</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8027576387120355</v>
+        <v>0.8027576387120353</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7689215272913766</v>
+        <v>0.7706761757989421</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8298289930315076</v>
+        <v>0.8325829372767134</v>
       </c>
     </row>
     <row r="13">
@@ -10807,19 +10807,19 @@
         <v>4069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9940</v>
+        <v>9959</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.006593103041011913</v>
+        <v>0.006593103041011915</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001836790622963386</v>
+        <v>0.001824308464254767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01610501490633171</v>
+        <v>0.01613641912031129</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -10828,19 +10828,19 @@
         <v>4482</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1550</v>
+        <v>1532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9127</v>
+        <v>9224</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.007266989191904649</v>
+        <v>0.007266989191904647</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002512890230863795</v>
+        <v>0.002484024441870267</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0147968274211424</v>
+        <v>0.01495458443406779</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -10849,19 +10849,19 @@
         <v>8552</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4391</v>
+        <v>4303</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15411</v>
+        <v>15820</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006929951700730899</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003557959523230255</v>
+        <v>0.003487071858643969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01248864231137883</v>
+        <v>0.012819865174003</v>
       </c>
     </row>
     <row r="15">
@@ -10878,19 +10878,19 @@
         <v>38445</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27863</v>
+        <v>27817</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52517</v>
+        <v>54381</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06229251942112399</v>
+        <v>0.062292519421124</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04514699294248857</v>
+        <v>0.04507133098238484</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08509221033398892</v>
+        <v>0.08811241782234538</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>35</v>
@@ -10899,19 +10899,19 @@
         <v>26287</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18293</v>
+        <v>18291</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>35141</v>
+        <v>36181</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04261654132483005</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02965675294590868</v>
+        <v>0.02965304264998539</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05697026820251475</v>
+        <v>0.05865602328325809</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>69</v>
@@ -10920,19 +10920,19 @@
         <v>64732</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>51920</v>
+        <v>50744</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>80369</v>
+        <v>82148</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05245728710240596</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04207434140337822</v>
+        <v>0.04112149240622699</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06512854427013337</v>
+        <v>0.06657023646864275</v>
       </c>
     </row>
     <row r="16">
@@ -10949,19 +10949,19 @@
         <v>77517</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61726</v>
+        <v>63094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94968</v>
+        <v>95913</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1255996262717961</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1000147870792511</v>
+        <v>0.1022304651661098</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1538760704453781</v>
+        <v>0.1554073199873124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>114</v>
@@ -10970,19 +10970,19 @@
         <v>77237</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63491</v>
+        <v>63998</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91460</v>
+        <v>90260</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1252166904414732</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1029312841774043</v>
+        <v>0.1037540899149177</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1482749157896964</v>
+        <v>0.1463299012506147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>186</v>
@@ -10991,19 +10991,19 @@
         <v>154754</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134177</v>
+        <v>132579</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177900</v>
+        <v>175684</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1254082120083753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1087333369979007</v>
+        <v>0.1074384863173435</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.144165721245814</v>
+        <v>0.1423697116045549</v>
       </c>
     </row>
     <row r="17">
@@ -11020,19 +11020,19 @@
         <v>497141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>475243</v>
+        <v>478143</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>515422</v>
+        <v>515354</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8055147512660681</v>
+        <v>0.8055147512660682</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7700329376240339</v>
+        <v>0.7747327451399788</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8351349982212304</v>
+        <v>0.8350246015348913</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>684</v>
@@ -11041,19 +11041,19 @@
         <v>508820</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>493234</v>
+        <v>492771</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>524515</v>
+        <v>524218</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8248997790417922</v>
+        <v>0.8248997790417919</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7996325432768314</v>
+        <v>0.7988818282181228</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8503453245707288</v>
+        <v>0.8498642247354993</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1117</v>
@@ -11062,19 +11062,19 @@
         <v>1005962</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>979989</v>
+        <v>980061</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1029701</v>
+        <v>1031043</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8152045491884879</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7941567593015212</v>
+        <v>0.7942150711459061</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8344419408498278</v>
+        <v>0.8355294983036373</v>
       </c>
     </row>
     <row r="18">
@@ -11166,19 +11166,19 @@
         <v>8534</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3546</v>
+        <v>3958</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16115</v>
+        <v>16424</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01227906198796034</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005101931770293255</v>
+        <v>0.005695332548213924</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02318677879208344</v>
+        <v>0.02363217204020081</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -11187,19 +11187,19 @@
         <v>6565</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3203</v>
+        <v>3243</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11225</v>
+        <v>11713</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008936628455110562</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004360500078833175</v>
+        <v>0.004414169146439838</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01528003525866432</v>
+        <v>0.01594420668683081</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -11208,19 +11208,19 @@
         <v>15099</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8856</v>
+        <v>9054</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24073</v>
+        <v>24533</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0105615046860448</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006194744246180228</v>
+        <v>0.006332988628455666</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0168387282318944</v>
+        <v>0.0171606236290194</v>
       </c>
     </row>
     <row r="20">
@@ -11237,19 +11237,19 @@
         <v>27481</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19088</v>
+        <v>18818</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38968</v>
+        <v>39023</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03954111168974928</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02746534375903236</v>
+        <v>0.02707704195525877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05606978230894263</v>
+        <v>0.05614914667874862</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -11258,19 +11258,19 @@
         <v>36954</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28956</v>
+        <v>28536</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47320</v>
+        <v>46131</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05030223162004278</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03941540361301624</v>
+        <v>0.03884350278807355</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.064412431494984</v>
+        <v>0.06279416509295009</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>88</v>
@@ -11279,19 +11279,19 @@
         <v>64435</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52597</v>
+        <v>52590</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>80282</v>
+        <v>79976</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04507086716025099</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03679089745866001</v>
+        <v>0.03678591921009203</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05615605106622891</v>
+        <v>0.05594160176417881</v>
       </c>
     </row>
     <row r="21">
@@ -11308,19 +11308,19 @@
         <v>86563</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>70151</v>
+        <v>70610</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>106899</v>
+        <v>104638</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1245515148544862</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1009379607291711</v>
+        <v>0.1015971805533315</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1538130839380391</v>
+        <v>0.1505600369035545</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>163</v>
@@ -11329,19 +11329,19 @@
         <v>94220</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>80679</v>
+        <v>80999</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>108113</v>
+        <v>108708</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1282541557872913</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1098219831382448</v>
+        <v>0.1102570548270817</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1471647525951907</v>
+        <v>0.1479749153585095</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>249</v>
@@ -11350,19 +11350,19 @@
         <v>180783</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>158738</v>
+        <v>158144</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>202594</v>
+        <v>205714</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1264541698835268</v>
+        <v>0.1264541698835269</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.111034343408662</v>
+        <v>0.1106185656986706</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1417106647176388</v>
+        <v>0.1438927370808916</v>
       </c>
     </row>
     <row r="22">
@@ -11379,19 +11379,19 @@
         <v>572418</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>549954</v>
+        <v>551233</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>593142</v>
+        <v>590265</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8236283114678042</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7913057607480413</v>
+        <v>0.7931468332878501</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8534478735952007</v>
+        <v>0.8493089044380854</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>906</v>
@@ -11400,19 +11400,19 @@
         <v>596897</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>580125</v>
+        <v>579841</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>613867</v>
+        <v>612947</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8125069841375553</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7896763355262783</v>
+        <v>0.7892905524063051</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8356076186104795</v>
+        <v>0.8343542923267457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1444</v>
@@ -11421,19 +11421,19 @@
         <v>1169314</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1142572</v>
+        <v>1140805</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1195360</v>
+        <v>1195516</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8179134582701771</v>
+        <v>0.8179134582701774</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.799207297153642</v>
+        <v>0.797971546227032</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8361319289773799</v>
+        <v>0.8362407128693193</v>
       </c>
     </row>
     <row r="23">
@@ -11525,19 +11525,19 @@
         <v>9243</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4722</v>
+        <v>4907</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16168</v>
+        <v>16757</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.01519503240947</v>
+        <v>0.01519503240946999</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007762491674246345</v>
+        <v>0.008066613114711983</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02658092182222509</v>
+        <v>0.02754855434340938</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -11546,19 +11546,19 @@
         <v>7708</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4118</v>
+        <v>4058</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13477</v>
+        <v>12984</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01270247796303079</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006785914287557695</v>
+        <v>0.006687015977634861</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02220889973296042</v>
+        <v>0.0213960461587348</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>23</v>
@@ -11567,19 +11567,19 @@
         <v>16951</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11073</v>
+        <v>10801</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25346</v>
+        <v>25006</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01395023077340744</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009113251040155132</v>
+        <v>0.008888760713817204</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02085896726803077</v>
+        <v>0.02057917390126158</v>
       </c>
     </row>
     <row r="25">
@@ -11596,19 +11596,19 @@
         <v>32411</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23415</v>
+        <v>23656</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44362</v>
+        <v>44804</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05328480095918814</v>
+        <v>0.05328480095918813</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03849533712713944</v>
+        <v>0.03889127880367164</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07293111782902227</v>
+        <v>0.07365792490481755</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -11617,19 +11617,19 @@
         <v>30072</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22611</v>
+        <v>22042</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38836</v>
+        <v>38099</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04955631385440985</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03726105111915964</v>
+        <v>0.03632382519760636</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06399813969586172</v>
+        <v>0.062784746089225</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -11638,19 +11638,19 @@
         <v>62483</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50082</v>
+        <v>49307</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77179</v>
+        <v>76066</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05142276466357321</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04121630152993727</v>
+        <v>0.04057874060329975</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06351668166405046</v>
+        <v>0.06260060748346669</v>
       </c>
     </row>
     <row r="26">
@@ -11667,19 +11667,19 @@
         <v>84290</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>68501</v>
+        <v>70015</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>101665</v>
+        <v>102721</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1385736236560659</v>
+        <v>0.1385736236560658</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1126161381690216</v>
+        <v>0.1151066708471689</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1671394444352973</v>
+        <v>0.1688757216677689</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>83</v>
@@ -11688,19 +11688,19 @@
         <v>46338</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37682</v>
+        <v>36881</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57473</v>
+        <v>56656</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.07636157873398131</v>
+        <v>0.07636157873398132</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06209728747751407</v>
+        <v>0.06077722286050163</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09471119522974432</v>
+        <v>0.09336501268994019</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>176</v>
@@ -11709,19 +11709,19 @@
         <v>130628</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>112475</v>
+        <v>113262</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>150685</v>
+        <v>150734</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1075044305989435</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09256455894798252</v>
+        <v>0.09321271295286419</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.124011202813429</v>
+        <v>0.124051704371024</v>
       </c>
     </row>
     <row r="27">
@@ -11738,19 +11738,19 @@
         <v>482322</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>462322</v>
+        <v>461125</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>501060</v>
+        <v>499884</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.792946542975276</v>
+        <v>0.7929465429752759</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7600654478710203</v>
+        <v>0.758098328827154</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8237518653840291</v>
+        <v>0.8218186515803324</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>852</v>
@@ -11759,19 +11759,19 @@
         <v>522708</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>509143</v>
+        <v>510098</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>536071</v>
+        <v>536055</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8613796294485779</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.839025412441448</v>
+        <v>0.8405989694052579</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8834007835906137</v>
+        <v>0.8833730865446293</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1374</v>
@@ -11780,19 +11780,19 @@
         <v>1005031</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>982353</v>
+        <v>983271</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1029379</v>
+        <v>1025549</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.827122573964076</v>
+        <v>0.8271225739640757</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8084591541336542</v>
+        <v>0.8092142239174118</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.84716036329345</v>
+        <v>0.8440085245354542</v>
       </c>
     </row>
     <row r="28">
@@ -11884,19 +11884,19 @@
         <v>5596</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2765</v>
+        <v>2811</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10433</v>
+        <v>10090</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01374789444826508</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00679264159802392</v>
+        <v>0.006904436067781688</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02562911712044199</v>
+        <v>0.02478684191090468</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -11905,19 +11905,19 @@
         <v>1655</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4433</v>
+        <v>4443</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003779009351775595</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0009864844028277752</v>
+        <v>0.000992779672799627</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0101214551861176</v>
+        <v>0.01014314902227405</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -11926,19 +11926,19 @@
         <v>7252</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3852</v>
+        <v>3563</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12858</v>
+        <v>12087</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008581032231248373</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004558068481778899</v>
+        <v>0.004216447532042588</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01521463233960384</v>
+        <v>0.01430277294894357</v>
       </c>
     </row>
     <row r="30">
@@ -11955,19 +11955,19 @@
         <v>15915</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9970</v>
+        <v>9574</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24877</v>
+        <v>23582</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03909471604985323</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02449108677665429</v>
+        <v>0.02351795567518971</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06110968556727855</v>
+        <v>0.05792929415252079</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -11976,19 +11976,19 @@
         <v>9584</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5803</v>
+        <v>5917</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14563</v>
+        <v>14670</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02188144607506718</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01324765507414789</v>
+        <v>0.01350839244394934</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0332484435486125</v>
+        <v>0.03349285736975221</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -11997,19 +11997,19 @@
         <v>25499</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>17883</v>
+        <v>18179</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35055</v>
+        <v>34382</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03017309709214755</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02116081092268597</v>
+        <v>0.02151098408045123</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04148041741393658</v>
+        <v>0.04068424904510876</v>
       </c>
     </row>
     <row r="31">
@@ -12026,19 +12026,19 @@
         <v>23333</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16032</v>
+        <v>16374</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>32488</v>
+        <v>32526</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.05731832234358302</v>
+        <v>0.05731832234358304</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03938351562605501</v>
+        <v>0.04022222492708857</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07980830675115069</v>
+        <v>0.07990011900733</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>59</v>
@@ -12047,19 +12047,19 @@
         <v>32584</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24973</v>
+        <v>25535</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>40706</v>
+        <v>41887</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07439120782889752</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05701521765793911</v>
+        <v>0.05829721844464493</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09293375493311655</v>
+        <v>0.0956311598776295</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>91</v>
@@ -12068,19 +12068,19 @@
         <v>55917</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>46397</v>
+        <v>46170</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>68698</v>
+        <v>68488</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06616718017429356</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05490228550256464</v>
+        <v>0.05463385714270542</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08129133029281713</v>
+        <v>0.08104194108825107</v>
       </c>
     </row>
     <row r="32">
@@ -12097,19 +12097,19 @@
         <v>362236</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>349866</v>
+        <v>350969</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>372490</v>
+        <v>372858</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8898390671582985</v>
+        <v>0.8898390671582986</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8594520655926405</v>
+        <v>0.8621618011174332</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9150292919632261</v>
+        <v>0.9159341581915836</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>744</v>
@@ -12118,19 +12118,19 @@
         <v>394185</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>385009</v>
+        <v>384355</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>402444</v>
+        <v>402410</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8999483367442598</v>
+        <v>0.8999483367442597</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.879000652659825</v>
+        <v>0.8775078070500202</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.918804810996789</v>
+        <v>0.9187266486661396</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1253</v>
@@ -12139,19 +12139,19 @@
         <v>756420</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>739423</v>
+        <v>740742</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>767935</v>
+        <v>769629</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8950786905023105</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8749652908625967</v>
+        <v>0.8765268800651793</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9087041470717622</v>
+        <v>0.9107086473464061</v>
       </c>
     </row>
     <row r="33">
@@ -12243,19 +12243,19 @@
         <v>1743</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4750</v>
+        <v>4674</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.005656246660156267</v>
+        <v>0.005656246660156268</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001809691749230278</v>
+        <v>0.001797378081326842</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01541394207096859</v>
+        <v>0.01516435140412328</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -12277,19 +12277,19 @@
         <v>1743</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5280</v>
+        <v>4938</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002264438928268608</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0007266030149413153</v>
+        <v>0.0007289444988587398</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.006859366473601164</v>
+        <v>0.006414317096591969</v>
       </c>
     </row>
     <row r="35">
@@ -12309,16 +12309,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5822</v>
+        <v>5319</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.005055937083905913</v>
+        <v>0.005055937083905914</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01889060549921106</v>
+        <v>0.01725882602746402</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -12327,19 +12327,19 @@
         <v>3139</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1211</v>
+        <v>1232</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7154</v>
+        <v>7427</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.006800293202537856</v>
+        <v>0.006800293202537855</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002623735322921021</v>
+        <v>0.00266958119336178</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01549780038091146</v>
+        <v>0.01608849844359197</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -12348,19 +12348,19 @@
         <v>4697</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2131</v>
+        <v>1945</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10225</v>
+        <v>9033</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.006101952388015355</v>
+        <v>0.006101952388015354</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.002768040320247443</v>
+        <v>0.002526883177775681</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01328226008745382</v>
+        <v>0.01173420349698377</v>
       </c>
     </row>
     <row r="36">
@@ -12377,19 +12377,19 @@
         <v>6835</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3430</v>
+        <v>3399</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12398</v>
+        <v>12819</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02217660851377447</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01112993929079609</v>
+        <v>0.01102817384647111</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04022719806132114</v>
+        <v>0.04159445376259446</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>18</v>
@@ -12398,19 +12398,19 @@
         <v>10509</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>6151</v>
+        <v>6706</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16187</v>
+        <v>16631</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02276604669049552</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01332392631244414</v>
+        <v>0.01452714943812018</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03506435727564387</v>
+        <v>0.03602634719614229</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>28</v>
@@ -12419,19 +12419,19 @@
         <v>17344</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>12340</v>
+        <v>11511</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>24879</v>
+        <v>24829</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.02253006922462986</v>
+        <v>0.02253006922462985</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01602984923706579</v>
+        <v>0.01495301396311857</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03231873231814017</v>
+        <v>0.03225325630605231</v>
       </c>
     </row>
     <row r="37">
@@ -12448,19 +12448,19 @@
         <v>298054</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>292017</v>
+        <v>291823</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>302379</v>
+        <v>302348</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9671112077421633</v>
+        <v>0.9671112077421634</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9475229375921695</v>
+        <v>0.9468936415473364</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9811454628938118</v>
+        <v>0.9810456890494839</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>853</v>
@@ -12469,19 +12469,19 @@
         <v>447976</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>441622</v>
+        <v>441732</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>453147</v>
+        <v>452686</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9704336601069666</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9566689415676868</v>
+        <v>0.9569060976565826</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9816353613805192</v>
+        <v>0.9806367629952204</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1294</v>
@@ -12490,19 +12490,19 @@
         <v>746029</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>737262</v>
+        <v>737505</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>752314</v>
+        <v>752838</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.9691035394590863</v>
+        <v>0.9691035394590861</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9577139498129559</v>
+        <v>0.9580295781417717</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9772675649193435</v>
+        <v>0.9779480423429606</v>
       </c>
     </row>
     <row r="38">
@@ -12594,19 +12594,19 @@
         <v>35573</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>24062</v>
+        <v>25726</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>50901</v>
+        <v>54298</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.01010498031504798</v>
+        <v>0.01010498031504799</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.006834995176159126</v>
+        <v>0.007307623301143411</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01445906389032455</v>
+        <v>0.01542383598739592</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>42</v>
@@ -12615,19 +12615,19 @@
         <v>36426</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>25451</v>
+        <v>25786</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>50183</v>
+        <v>50117</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.009809843841928892</v>
+        <v>0.00980984384192889</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.006854069399466266</v>
+        <v>0.006944343899679927</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01351461251973756</v>
+        <v>0.01349696191197024</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>80</v>
@@ -12636,19 +12636,19 @@
         <v>72000</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>57101</v>
+        <v>57959</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>92423</v>
+        <v>93784</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.009953477737349186</v>
+        <v>0.009953477737349187</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.007893887289116771</v>
+        <v>0.008012503581424163</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01277679514880741</v>
+        <v>0.01296502703988865</v>
       </c>
     </row>
     <row r="40">
@@ -12665,19 +12665,19 @@
         <v>182213</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>154877</v>
+        <v>153003</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>217360</v>
+        <v>213465</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.05175938748814883</v>
+        <v>0.05175938748814882</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04399445521376873</v>
+        <v>0.04346210971143825</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06174334371097174</v>
+        <v>0.06063673267808761</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>199</v>
@@ -12686,19 +12686,19 @@
         <v>142180</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>122158</v>
+        <v>123182</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>165342</v>
+        <v>162862</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.03828999385724583</v>
+        <v>0.03828999385724584</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03289792291221497</v>
+        <v>0.03317361455136784</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.044527784653912</v>
+        <v>0.04385974000900351</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>356</v>
@@ -12707,19 +12707,19 @@
         <v>324393</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>290290</v>
+        <v>290967</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>362854</v>
+        <v>365670</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04484513580805195</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04013058217169706</v>
+        <v>0.04022416124310311</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05016209739658727</v>
+        <v>0.05055132194088804</v>
       </c>
     </row>
     <row r="41">
@@ -12736,19 +12736,19 @@
         <v>412430</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>372843</v>
+        <v>368298</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>458189</v>
+        <v>459538</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1171548921626453</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1059098339959377</v>
+        <v>0.1046185891392015</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1301531911113053</v>
+        <v>0.1305361703083728</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>514</v>
@@ -12757,19 +12757,19 @@
         <v>359270</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>326262</v>
+        <v>329537</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>395458</v>
+        <v>392457</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09675371733029318</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08786456644470371</v>
+        <v>0.08874636070627276</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1064992948165498</v>
+        <v>0.1056912407257734</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>873</v>
@@ -12778,19 +12778,19 @@
         <v>771701</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>714631</v>
+        <v>723640</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>829384</v>
+        <v>829379</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1066823451998104</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09879292991408033</v>
+        <v>0.1000382595257086</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1146567094470776</v>
+        <v>0.1146560662703487</v>
       </c>
     </row>
     <row r="42">
@@ -12807,19 +12807,19 @@
         <v>2890169</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2838164</v>
+        <v>2833590</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2939798</v>
+        <v>2940866</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.8209807400341579</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8062081674432706</v>
+        <v>0.8049089751489422</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.835078352158269</v>
+        <v>0.835381608759984</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4583</v>
@@ -12828,19 +12828,19 @@
         <v>3175367</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3134560</v>
+        <v>3134929</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3210915</v>
+        <v>3211937</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.8551464449705323</v>
+        <v>0.855146444970532</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8441569892213757</v>
+        <v>0.844256381678266</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.8647198348255443</v>
+        <v>0.8649951043209696</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7395</v>
@@ -12849,19 +12849,19 @@
         <v>6065536</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5998535</v>
+        <v>5995790</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6130300</v>
+        <v>6125557</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.8385190412547883</v>
+        <v>0.8385190412547885</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8292566788948253</v>
+        <v>0.8288771788841418</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.8474723318388241</v>
+        <v>0.8468165337028051</v>
       </c>
     </row>
     <row r="43">
